--- a/FLow calcualtion Jhimruk_andhi/Average Daily River Discharge Data - JHC - 5152 to 7980.xlsx
+++ b/FLow calcualtion Jhimruk_andhi/Average Daily River Discharge Data - JHC - 5152 to 7980.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\02Jhimruk_working\FLow calcualtion Jhimruk_andhi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\02Jhimruk_working\Jhimruk\FLow calcualtion Jhimruk_andhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="59">
   <si>
     <t>Jhimruk River Hydrology Data</t>
   </si>
@@ -174,6 +174,42 @@
   </si>
   <si>
     <t>All inlet gates are closed and water flow from bypass. Headworks maintenance.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -358,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,9 +419,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -415,6 +448,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1017"/>
+  <dimension ref="A1:AC1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A983" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +768,7 @@
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,7 +776,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -750,13 +784,13 @@
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -764,7 +798,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -804,8 +838,44 @@
       <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -837,18 +907,72 @@
       <c r="K6" s="12">
         <v>2.85</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="13">
         <v>8.69</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="29">
         <f>AVERAGE(B6:M37)</f>
         <v>17.83042253521127</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>52</v>
+      </c>
+      <c r="Q6">
+        <v>38</v>
+      </c>
+      <c r="R6" t="str">
+        <f>CONCATENATE("=",R$5,$Q6)</f>
+        <v>=B38</v>
+      </c>
+      <c r="S6" t="str">
+        <f>CONCATENATE("=",S$5,$Q6)</f>
+        <v>=C38</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" ref="T6:AC21" si="0">CONCATENATE("=",T$5,$Q6)</f>
+        <v>=D38</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="0"/>
+        <v>=E38</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="0"/>
+        <v>=F38</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="0"/>
+        <v>=G38</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="0"/>
+        <v>=H38</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="0"/>
+        <v>=I38</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="0"/>
+        <v>=J38</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v>=K38</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="0"/>
+        <v>=L38</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="0"/>
+        <v>=M38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -880,14 +1004,69 @@
       <c r="K7" s="12">
         <v>2.65</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M7" s="13">
         <v>7.31</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>53</v>
+      </c>
+      <c r="Q7">
+        <f>Q6+35</f>
+        <v>73</v>
+      </c>
+      <c r="R7" t="str">
+        <f>CONCATENATE("=",R$5,$Q7)</f>
+        <v>=B73</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" ref="S7:AC34" si="1">CONCATENATE("=",S$5,$Q7)</f>
+        <v>=C73</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="0"/>
+        <v>=D73</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="0"/>
+        <v>=E73</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="0"/>
+        <v>=F73</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="0"/>
+        <v>=G73</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="0"/>
+        <v>=H73</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="0"/>
+        <v>=I73</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="0"/>
+        <v>=J73</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v>=K73</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="0"/>
+        <v>=L73</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="0"/>
+        <v>=M73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -919,14 +1098,69 @@
       <c r="K8" s="12">
         <v>2.3969999999999998</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M8" s="13">
         <v>13.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>54</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q34" si="2">Q7+35</f>
+        <v>108</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" ref="R8:R34" si="3">CONCATENATE("=",R$5,$Q8)</f>
+        <v>=B108</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
+        <v>=C108</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="0"/>
+        <v>=D108</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="0"/>
+        <v>=E108</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="0"/>
+        <v>=F108</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="0"/>
+        <v>=G108</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="0"/>
+        <v>=H108</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="0"/>
+        <v>=I108</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="0"/>
+        <v>=J108</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v>=K108</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="0"/>
+        <v>=L108</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="0"/>
+        <v>=M108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -958,14 +1192,69 @@
       <c r="K9" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M9" s="13">
         <v>15.52</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>55</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="3"/>
+        <v>=B143</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
+        <v>=C143</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="0"/>
+        <v>=D143</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="0"/>
+        <v>=E143</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="0"/>
+        <v>=F143</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="0"/>
+        <v>=G143</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="0"/>
+        <v>=H143</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
+        <v>=I143</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="0"/>
+        <v>=J143</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>=K143</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="0"/>
+        <v>=L143</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="0"/>
+        <v>=M143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -997,14 +1286,69 @@
       <c r="K10" s="12">
         <v>2.4489999999999998</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M10" s="13">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>56</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="3"/>
+        <v>=B178</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v>=C178</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="0"/>
+        <v>=D178</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="0"/>
+        <v>=E178</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="0"/>
+        <v>=F178</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="0"/>
+        <v>=G178</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="0"/>
+        <v>=H178</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="0"/>
+        <v>=I178</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="0"/>
+        <v>=J178</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v>=K178</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="0"/>
+        <v>=L178</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="0"/>
+        <v>=M178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1036,14 +1380,69 @@
       <c r="K11" s="12">
         <v>2.1989999999999998</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="13">
         <v>27.14</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>57</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="3"/>
+        <v>=B213</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
+        <v>=C213</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="0"/>
+        <v>=D213</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="0"/>
+        <v>=E213</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="0"/>
+        <v>=F213</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="0"/>
+        <v>=G213</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="0"/>
+        <v>=H213</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="0"/>
+        <v>=I213</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="0"/>
+        <v>=J213</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v>=K213</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="0"/>
+        <v>=L213</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="0"/>
+        <v>=M213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1075,14 +1474,69 @@
       <c r="K12" s="12">
         <v>1.99</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M12" s="13">
         <v>20.67</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>58</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="3"/>
+        <v>=B248</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="1"/>
+        <v>=C248</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="0"/>
+        <v>=D248</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="0"/>
+        <v>=E248</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="0"/>
+        <v>=F248</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="0"/>
+        <v>=G248</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="0"/>
+        <v>=H248</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
+        <v>=I248</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="0"/>
+        <v>=J248</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v>=K248</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="0"/>
+        <v>=L248</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="0"/>
+        <v>=M248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1114,14 +1568,69 @@
       <c r="K13" s="12">
         <v>1.984</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M13" s="13">
         <v>50.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>59</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="3"/>
+        <v>=B283</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="1"/>
+        <v>=C283</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="0"/>
+        <v>=D283</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="0"/>
+        <v>=E283</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="0"/>
+        <v>=F283</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="0"/>
+        <v>=G283</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="0"/>
+        <v>=H283</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="0"/>
+        <v>=I283</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="0"/>
+        <v>=J283</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v>=K283</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="0"/>
+        <v>=L283</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="0"/>
+        <v>=M283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1153,14 +1662,69 @@
       <c r="K14" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="13">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>60</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="3"/>
+        <v>=B318</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="1"/>
+        <v>=C318</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="0"/>
+        <v>=D318</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="0"/>
+        <v>=E318</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="0"/>
+        <v>=F318</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="0"/>
+        <v>=G318</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="0"/>
+        <v>=H318</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="0"/>
+        <v>=I318</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="0"/>
+        <v>=J318</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v>=K318</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="0"/>
+        <v>=L318</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="0"/>
+        <v>=M318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -1192,14 +1756,69 @@
       <c r="K15" s="12">
         <v>2.02</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M15" s="13">
         <v>46.18</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>61</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="3"/>
+        <v>=B353</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="1"/>
+        <v>=C353</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="0"/>
+        <v>=D353</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="0"/>
+        <v>=E353</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="0"/>
+        <v>=F353</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="0"/>
+        <v>=G353</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="0"/>
+        <v>=H353</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="0"/>
+        <v>=I353</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="0"/>
+        <v>=J353</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v>=K353</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="0"/>
+        <v>=L353</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="0"/>
+        <v>=M353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -1231,14 +1850,69 @@
       <c r="K16" s="12">
         <v>1.94</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="13">
         <v>42.93</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>62</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="3"/>
+        <v>=B388</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="1"/>
+        <v>=C388</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="0"/>
+        <v>=D388</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="0"/>
+        <v>=E388</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="0"/>
+        <v>=F388</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="0"/>
+        <v>=G388</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="0"/>
+        <v>=H388</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="0"/>
+        <v>=I388</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="0"/>
+        <v>=J388</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v>=K388</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="0"/>
+        <v>=L388</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="0"/>
+        <v>=M388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1270,14 +1944,69 @@
       <c r="K17" s="12">
         <v>1.96</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M17" s="13">
         <v>39.020000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>63</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>423</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="3"/>
+        <v>=B423</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="1"/>
+        <v>=C423</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="0"/>
+        <v>=D423</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="0"/>
+        <v>=E423</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="0"/>
+        <v>=F423</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="0"/>
+        <v>=G423</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="0"/>
+        <v>=H423</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="0"/>
+        <v>=I423</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="0"/>
+        <v>=J423</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v>=K423</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="0"/>
+        <v>=L423</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="0"/>
+        <v>=M423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1306,17 +2035,72 @@
       <c r="J18" s="13">
         <v>2.42</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M18" s="13">
         <v>38.82</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>64</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>458</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="3"/>
+        <v>=B458</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="1"/>
+        <v>=C458</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="0"/>
+        <v>=D458</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="0"/>
+        <v>=E458</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="0"/>
+        <v>=F458</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="0"/>
+        <v>=G458</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="0"/>
+        <v>=H458</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
+        <v>=I458</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="0"/>
+        <v>=J458</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v>=K458</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="0"/>
+        <v>=L458</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="0"/>
+        <v>=M458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1345,17 +2129,72 @@
       <c r="J19" s="13">
         <v>2.87</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M19" s="13">
         <v>55.33</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>65</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>493</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="3"/>
+        <v>=B493</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="1"/>
+        <v>=C493</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="0"/>
+        <v>=D493</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="0"/>
+        <v>=E493</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="0"/>
+        <v>=F493</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="0"/>
+        <v>=G493</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="0"/>
+        <v>=H493</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="0"/>
+        <v>=I493</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="0"/>
+        <v>=J493</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v>=K493</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="0"/>
+        <v>=L493</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="0"/>
+        <v>=M493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1384,17 +2223,72 @@
       <c r="J20" s="13">
         <v>2.87</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M20" s="13">
         <v>50.31</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>66</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="3"/>
+        <v>=B528</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="1"/>
+        <v>=C528</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="0"/>
+        <v>=D528</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="0"/>
+        <v>=E528</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="0"/>
+        <v>=F528</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="0"/>
+        <v>=G528</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="0"/>
+        <v>=H528</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="0"/>
+        <v>=I528</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="0"/>
+        <v>=J528</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v>=K528</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="0"/>
+        <v>=L528</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="0"/>
+        <v>=M528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1423,17 +2317,72 @@
       <c r="J21" s="13">
         <v>2.75</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M21" s="13">
         <v>39.49</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>67</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>563</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="3"/>
+        <v>=B563</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="1"/>
+        <v>=C563</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="0"/>
+        <v>=D563</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="0"/>
+        <v>=E563</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="0"/>
+        <v>=F563</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="0"/>
+        <v>=G563</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="0"/>
+        <v>=H563</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="0"/>
+        <v>=I563</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="0"/>
+        <v>=J563</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v>=K563</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="0"/>
+        <v>=L563</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="0"/>
+        <v>=M563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1462,17 +2411,72 @@
       <c r="J22" s="13">
         <v>2.84</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M22" s="13">
         <v>50.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>68</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>598</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="3"/>
+        <v>=B598</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="1"/>
+        <v>=C598</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="1"/>
+        <v>=D598</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="1"/>
+        <v>=E598</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="1"/>
+        <v>=F598</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="1"/>
+        <v>=G598</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="1"/>
+        <v>=H598</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="1"/>
+        <v>=I598</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="1"/>
+        <v>=J598</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="1"/>
+        <v>=K598</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>=L598</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="1"/>
+        <v>=M598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1501,17 +2505,72 @@
       <c r="J23" s="13">
         <v>2.77</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M23" s="13">
         <v>59.32</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>69</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>633</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="3"/>
+        <v>=B633</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="1"/>
+        <v>=C633</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="1"/>
+        <v>=D633</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="1"/>
+        <v>=E633</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="1"/>
+        <v>=F633</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="1"/>
+        <v>=G633</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="1"/>
+        <v>=H633</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="1"/>
+        <v>=I633</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="1"/>
+        <v>=J633</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="1"/>
+        <v>=K633</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v>=L633</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="1"/>
+        <v>=M633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1540,17 +2599,72 @@
       <c r="J24" s="13">
         <v>2.77</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="L24" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M24" s="13">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>70</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>668</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="3"/>
+        <v>=B668</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="1"/>
+        <v>=C668</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="1"/>
+        <v>=D668</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="1"/>
+        <v>=E668</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="1"/>
+        <v>=F668</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="1"/>
+        <v>=G668</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="1"/>
+        <v>=H668</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="1"/>
+        <v>=I668</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="1"/>
+        <v>=J668</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="1"/>
+        <v>=K668</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
+        <v>=L668</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="1"/>
+        <v>=M668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1579,17 +2693,72 @@
       <c r="J25" s="13">
         <v>2.71</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="13">
         <v>35.49</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>71</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>703</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="3"/>
+        <v>=B703</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="1"/>
+        <v>=C703</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="1"/>
+        <v>=D703</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="1"/>
+        <v>=E703</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="1"/>
+        <v>=F703</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="1"/>
+        <v>=G703</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="1"/>
+        <v>=H703</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="1"/>
+        <v>=I703</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="1"/>
+        <v>=J703</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="1"/>
+        <v>=K703</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
+        <v>=L703</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="1"/>
+        <v>=M703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -1618,17 +2787,72 @@
       <c r="J26" s="13">
         <v>2.71</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M26" s="13">
         <v>29.92</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>72</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>738</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="3"/>
+        <v>=B738</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="1"/>
+        <v>=C738</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="1"/>
+        <v>=D738</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="1"/>
+        <v>=E738</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="1"/>
+        <v>=F738</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="1"/>
+        <v>=G738</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="1"/>
+        <v>=H738</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="1"/>
+        <v>=I738</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="1"/>
+        <v>=J738</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="1"/>
+        <v>=K738</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="1"/>
+        <v>=L738</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="1"/>
+        <v>=M738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1657,17 +2881,72 @@
       <c r="J27" s="13">
         <v>2.54</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M27" s="13">
         <v>30.79</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>73</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>773</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="3"/>
+        <v>=B773</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="1"/>
+        <v>=C773</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="1"/>
+        <v>=D773</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="1"/>
+        <v>=E773</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="1"/>
+        <v>=F773</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="1"/>
+        <v>=G773</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="1"/>
+        <v>=H773</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="1"/>
+        <v>=I773</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="1"/>
+        <v>=J773</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="1"/>
+        <v>=K773</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="1"/>
+        <v>=L773</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="1"/>
+        <v>=M773</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -1696,17 +2975,72 @@
       <c r="J28" s="13">
         <v>2.63</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="L28" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M28" s="13">
         <v>28.62</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>74</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>808</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="3"/>
+        <v>=B808</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="1"/>
+        <v>=C808</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="1"/>
+        <v>=D808</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="1"/>
+        <v>=E808</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="1"/>
+        <v>=F808</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="1"/>
+        <v>=G808</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="1"/>
+        <v>=H808</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="1"/>
+        <v>=I808</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="1"/>
+        <v>=J808</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="1"/>
+        <v>=K808</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="1"/>
+        <v>=L808</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="1"/>
+        <v>=M808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -1735,17 +3069,72 @@
       <c r="J29" s="13">
         <v>2.77</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="31" t="s">
+      <c r="L29" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M29" s="13">
         <v>36.840000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>75</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>843</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="3"/>
+        <v>=B843</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="1"/>
+        <v>=C843</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="1"/>
+        <v>=D843</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="1"/>
+        <v>=E843</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="1"/>
+        <v>=F843</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="1"/>
+        <v>=G843</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="1"/>
+        <v>=H843</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="1"/>
+        <v>=I843</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="1"/>
+        <v>=J843</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="1"/>
+        <v>=K843</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="1"/>
+        <v>=L843</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="1"/>
+        <v>=M843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -1774,17 +3163,72 @@
       <c r="J30" s="13">
         <v>2.77</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="31" t="s">
+      <c r="L30" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M30" s="13">
         <v>35.65</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>76</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>878</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="3"/>
+        <v>=B878</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="1"/>
+        <v>=C878</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="1"/>
+        <v>=D878</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="1"/>
+        <v>=E878</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="1"/>
+        <v>=F878</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="1"/>
+        <v>=G878</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="1"/>
+        <v>=H878</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="1"/>
+        <v>=I878</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="1"/>
+        <v>=J878</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="1"/>
+        <v>=K878</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="1"/>
+        <v>=L878</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="1"/>
+        <v>=M878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -1813,17 +3257,72 @@
       <c r="J31" s="13">
         <v>2.77</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M31" s="13">
         <v>122.63</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>77</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>913</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="3"/>
+        <v>=B913</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="1"/>
+        <v>=C913</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="1"/>
+        <v>=D913</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="1"/>
+        <v>=E913</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="1"/>
+        <v>=F913</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="1"/>
+        <v>=G913</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="1"/>
+        <v>=H913</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="1"/>
+        <v>=I913</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="1"/>
+        <v>=J913</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="1"/>
+        <v>=K913</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="1"/>
+        <v>=L913</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="1"/>
+        <v>=M913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -1852,17 +3351,72 @@
       <c r="J32" s="13">
         <v>2.77</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="31" t="s">
+      <c r="L32" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M32" s="13">
         <v>79.47</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>78</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>948</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="3"/>
+        <v>=B948</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="1"/>
+        <v>=C948</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="1"/>
+        <v>=D948</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="1"/>
+        <v>=E948</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="1"/>
+        <v>=F948</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="1"/>
+        <v>=G948</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="1"/>
+        <v>=H948</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="1"/>
+        <v>=I948</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="1"/>
+        <v>=J948</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="1"/>
+        <v>=K948</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="1"/>
+        <v>=L948</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="1"/>
+        <v>=M948</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -1891,17 +3445,72 @@
       <c r="J33" s="13">
         <v>2.77</v>
       </c>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="31" t="s">
+      <c r="L33" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M33" s="13">
         <v>67.16</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>79</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>983</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="3"/>
+        <v>=B983</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="1"/>
+        <v>=C983</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="1"/>
+        <v>=D983</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="1"/>
+        <v>=E983</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="1"/>
+        <v>=F983</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="1"/>
+        <v>=G983</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="1"/>
+        <v>=H983</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="1"/>
+        <v>=I983</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="1"/>
+        <v>=J983</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="1"/>
+        <v>=K983</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="1"/>
+        <v>=L983</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="1"/>
+        <v>=M983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -1930,17 +3539,72 @@
       <c r="J34" s="13">
         <v>2.71</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="31" t="s">
+      <c r="L34" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="13">
         <v>61.52</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>80</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>1018</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="3"/>
+        <v>=B1018</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="1"/>
+        <v>=C1018</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="1"/>
+        <v>=D1018</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="1"/>
+        <v>=E1018</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="1"/>
+        <v>=F1018</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="1"/>
+        <v>=G1018</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="1"/>
+        <v>=H1018</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="1"/>
+        <v>=I1018</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="1"/>
+        <v>=J1018</v>
+      </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="1"/>
+        <v>=K1018</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="1"/>
+        <v>=L1018</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="1"/>
+        <v>=M1018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -1965,17 +3629,65 @@
       <c r="J35" s="13">
         <v>2.74</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="31" t="s">
+      <c r="L35" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="13">
         <v>57.05</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R35" t="str">
+        <f>B40</f>
+        <v>Shrawan</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" ref="S35:AC35" si="4">C40</f>
+        <v>Bhadra</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="4"/>
+        <v>Ashwin</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="4"/>
+        <v>Kartik</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="4"/>
+        <v>Mangsir</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="4"/>
+        <v>Poush</v>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="4"/>
+        <v>Magh</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="4"/>
+        <v>Falgun</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="4"/>
+        <v>Chaitra</v>
+      </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="4"/>
+        <v>Baishakh</v>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Jestha </v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="4"/>
+        <v>Ashadh</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -1992,17 +3704,59 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L36" s="31" t="s">
+      <c r="L36" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M36" s="13">
         <v>57.87</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R36" s="29"/>
+      <c r="S36" s="29">
+        <f>C38</f>
+        <v>53.261935483870971</v>
+      </c>
+      <c r="T36" s="29">
+        <f>D38</f>
+        <v>30.028064516129039</v>
+      </c>
+      <c r="U36" s="29">
+        <f>E38</f>
+        <v>10.833033333333336</v>
+      </c>
+      <c r="V36" s="29">
+        <f>F38</f>
+        <v>7.5075862068965495</v>
+      </c>
+      <c r="W36" s="29">
+        <f>G38</f>
+        <v>6.1473333333333331</v>
+      </c>
+      <c r="X36" s="29">
+        <f>H38</f>
+        <v>4.6734482758620688</v>
+      </c>
+      <c r="Y36" s="29">
+        <f>I38</f>
+        <v>4.3733333333333331</v>
+      </c>
+      <c r="Z36" s="29">
+        <f>J38</f>
+        <v>2.8119999999999989</v>
+      </c>
+      <c r="AA36" s="29">
+        <f>K38</f>
+        <v>2.2465833333333332</v>
+      </c>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29">
+        <f>M38</f>
+        <v>43.020937499999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -2015,31 +3769,220 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="31" t="s">
+      <c r="L37" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M37" s="13">
         <v>63.35</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R37" s="29">
+        <f>B73</f>
+        <v>65.76906249999999</v>
+      </c>
+      <c r="S37" s="29">
+        <f>C73</f>
+        <v>69.926451612903207</v>
+      </c>
+      <c r="T37" s="29">
+        <f>D73</f>
+        <v>26.752903225806456</v>
+      </c>
+      <c r="U37" s="29">
+        <f>E73</f>
+        <v>10.511666666666667</v>
+      </c>
+      <c r="V37" s="29">
+        <f>F73</f>
+        <v>8.2096551724137914</v>
+      </c>
+      <c r="W37" s="29">
+        <f>G73</f>
+        <v>6.1170000000000009</v>
+      </c>
+      <c r="X37" s="29">
+        <f>H73</f>
+        <v>6.6275862068965523</v>
+      </c>
+      <c r="Y37" s="29">
+        <f>I73</f>
+        <v>6.1359999999999992</v>
+      </c>
+      <c r="Z37" s="29">
+        <f>J73</f>
+        <v>3.847</v>
+      </c>
+      <c r="AA37" s="29">
+        <f>K73</f>
+        <v>2.0877419354838711</v>
+      </c>
+      <c r="AB37" s="29">
+        <f>L73</f>
+        <v>2.8166562500000003</v>
+      </c>
+      <c r="AC37" s="29">
+        <f>M73</f>
+        <v>28.786967741935481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="e">
+        <f>AVERAGE(B6:B37)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" s="33">
+        <f t="shared" ref="C38:M38" si="5">AVERAGE(C6:C37)</f>
+        <v>53.261935483870971</v>
+      </c>
+      <c r="D38" s="33">
+        <f t="shared" si="5"/>
+        <v>30.028064516129039</v>
+      </c>
+      <c r="E38" s="33">
+        <f t="shared" si="5"/>
+        <v>10.833033333333336</v>
+      </c>
+      <c r="F38" s="33">
+        <f t="shared" si="5"/>
+        <v>7.5075862068965495</v>
+      </c>
+      <c r="G38" s="33">
+        <f t="shared" si="5"/>
+        <v>6.1473333333333331</v>
+      </c>
+      <c r="H38" s="33">
+        <f t="shared" si="5"/>
+        <v>4.6734482758620688</v>
+      </c>
+      <c r="I38" s="33">
+        <f t="shared" si="5"/>
+        <v>4.3733333333333331</v>
+      </c>
+      <c r="J38" s="33">
+        <f t="shared" si="5"/>
+        <v>2.8119999999999989</v>
+      </c>
+      <c r="K38" s="33">
+        <f t="shared" si="5"/>
+        <v>2.2465833333333332</v>
+      </c>
+      <c r="L38" s="33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="33">
+        <f t="shared" si="5"/>
+        <v>43.020937499999995</v>
+      </c>
+      <c r="R38" s="29">
+        <f>B108</f>
+        <v>97.308125000000032</v>
+      </c>
+      <c r="S38" s="29">
+        <f>C108</f>
+        <v>92.848387096774189</v>
+      </c>
+      <c r="T38" s="29">
+        <f>D108</f>
+        <v>50.073666666666668</v>
+      </c>
+      <c r="U38" s="29">
+        <f>E108</f>
+        <v>20.305</v>
+      </c>
+      <c r="V38" s="29">
+        <f>F108</f>
+        <v>9.4963333333333324</v>
+      </c>
+      <c r="W38" s="29">
+        <f>G108</f>
+        <v>6.9452333333333343</v>
+      </c>
+      <c r="X38" s="29">
+        <f>H108</f>
+        <v>6.3124137931034481</v>
+      </c>
+      <c r="Y38" s="29">
+        <f>I108</f>
+        <v>4.3993333333333338</v>
+      </c>
+      <c r="Z38" s="29">
+        <f>J108</f>
+        <v>4.4883333333333333</v>
+      </c>
+      <c r="AA38" s="29">
+        <f>K108</f>
+        <v>3.9435483870967749</v>
+      </c>
+      <c r="AB38" s="29">
+        <f>L108</f>
+        <v>3.1909375000000004</v>
+      </c>
+      <c r="AC38" s="29">
+        <f>M108</f>
+        <v>46.505806451612898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R39" s="29">
+        <f>B143</f>
+        <v>125.20281250000002</v>
+      </c>
+      <c r="S39" s="29">
+        <f>C143</f>
+        <v>70.750967741935469</v>
+      </c>
+      <c r="T39" s="29">
+        <f>D143</f>
+        <v>34.590666666666678</v>
+      </c>
+      <c r="U39" s="29">
+        <f>E143</f>
+        <v>14.878333333333334</v>
+      </c>
+      <c r="V39" s="29">
+        <f>F143</f>
+        <v>11.494000000000002</v>
+      </c>
+      <c r="W39" s="29">
+        <f>G143</f>
+        <v>8.0400000000000027</v>
+      </c>
+      <c r="X39" s="29">
+        <f>H143</f>
+        <v>5.5073333333333334</v>
+      </c>
+      <c r="Y39" s="29">
+        <f>I143</f>
+        <v>5.0917241379310347</v>
+      </c>
+      <c r="Z39" s="29">
+        <f>J143</f>
+        <v>5.0993333333333331</v>
+      </c>
+      <c r="AA39" s="29">
+        <f>K143</f>
+        <v>4.6358064516129041</v>
+      </c>
+      <c r="AB39" s="29">
+        <f>L143</f>
+        <v>3.9825806451612897</v>
+      </c>
+      <c r="AC39" s="29">
+        <f>M143</f>
+        <v>68.406562500000021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
@@ -2079,8 +4022,56 @@
       <c r="M40" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R40" s="29">
+        <f>B178</f>
+        <v>96.429999999999978</v>
+      </c>
+      <c r="S40" s="29">
+        <f>C178</f>
+        <v>123.96838709677422</v>
+      </c>
+      <c r="T40" s="29">
+        <f>D178</f>
+        <v>45.182903225806442</v>
+      </c>
+      <c r="U40" s="29">
+        <f>E178</f>
+        <v>18.232000000000003</v>
+      </c>
+      <c r="V40" s="29">
+        <f>F178</f>
+        <v>11.387931034482754</v>
+      </c>
+      <c r="W40" s="29">
+        <f>G178</f>
+        <v>7.0836666666666668</v>
+      </c>
+      <c r="X40" s="29">
+        <f>H178</f>
+        <v>5.7299999999999986</v>
+      </c>
+      <c r="Y40" s="29">
+        <f>I178</f>
+        <v>4.5113333333333339</v>
+      </c>
+      <c r="Z40" s="29">
+        <f>J178</f>
+        <v>3.7753333333333332</v>
+      </c>
+      <c r="AA40" s="29">
+        <f>K178</f>
+        <v>2.3164516129032258</v>
+      </c>
+      <c r="AB40" s="29">
+        <f>L178</f>
+        <v>9.9458064516129046</v>
+      </c>
+      <c r="AC40" s="29">
+        <f>M178</f>
+        <v>38.919687499999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -2120,12 +4111,60 @@
       <c r="M41" s="12">
         <v>14.03</v>
       </c>
-      <c r="N41" s="32">
+      <c r="N41" s="29">
         <f>AVERAGE(B41:M72)</f>
         <v>20.157237704918039</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R41" s="29">
+        <f>B213</f>
+        <v>60.746129032258061</v>
+      </c>
+      <c r="S41" s="29">
+        <f>C213</f>
+        <v>110.90968750000002</v>
+      </c>
+      <c r="T41" s="29">
+        <f>D213</f>
+        <v>73.757866666666658</v>
+      </c>
+      <c r="U41" s="29">
+        <f>E213</f>
+        <v>20.939166666666669</v>
+      </c>
+      <c r="V41" s="29">
+        <f>F213</f>
+        <v>10.40344827586207</v>
+      </c>
+      <c r="W41" s="29">
+        <f>G213</f>
+        <v>7.5724333333333336</v>
+      </c>
+      <c r="X41" s="29">
+        <f>H213</f>
+        <v>6.4764827586206888</v>
+      </c>
+      <c r="Y41" s="29">
+        <f>I213</f>
+        <v>5.2913333333333323</v>
+      </c>
+      <c r="Z41" s="29">
+        <f>J213</f>
+        <v>3.9739999999999993</v>
+      </c>
+      <c r="AA41" s="29">
+        <f>K213</f>
+        <v>5.4279999999999999</v>
+      </c>
+      <c r="AB41" s="29">
+        <f>L213</f>
+        <v>25.826562499999998</v>
+      </c>
+      <c r="AC41" s="29">
+        <f>M213</f>
+        <v>57.251935483870973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -2165,8 +4204,56 @@
       <c r="M42" s="12">
         <v>7.23</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R42" s="29">
+        <f>B248</f>
+        <v>90.971875000000011</v>
+      </c>
+      <c r="S42" s="29">
+        <f>C248</f>
+        <v>117.17419354838711</v>
+      </c>
+      <c r="T42" s="29">
+        <f>D248</f>
+        <v>64.708000000000013</v>
+      </c>
+      <c r="U42" s="29">
+        <f>E248</f>
+        <v>17.108666666666661</v>
+      </c>
+      <c r="V42" s="29">
+        <f>F248</f>
+        <v>10.143666666666665</v>
+      </c>
+      <c r="W42" s="29">
+        <f>G248</f>
+        <v>7.3424137931034474</v>
+      </c>
+      <c r="X42" s="29">
+        <f>H248</f>
+        <v>6.0462068965517251</v>
+      </c>
+      <c r="Y42" s="29">
+        <f>I248</f>
+        <v>5.3056666666666672</v>
+      </c>
+      <c r="Z42" s="29">
+        <f>J248</f>
+        <v>4.1206451612903221</v>
+      </c>
+      <c r="AA42" s="29">
+        <f>K248</f>
+        <v>5.3246666666666673</v>
+      </c>
+      <c r="AB42" s="29">
+        <f>L248</f>
+        <v>10.667187499999999</v>
+      </c>
+      <c r="AC42" s="29">
+        <f>M248</f>
+        <v>39.447741935483869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -2206,8 +4293,56 @@
       <c r="M43" s="12">
         <v>14.09</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R43" s="29">
+        <f>B283</f>
+        <v>81.160656250000017</v>
+      </c>
+      <c r="S43" s="29">
+        <f>C283</f>
+        <v>113.73548387096771</v>
+      </c>
+      <c r="T43" s="29">
+        <f>D283</f>
+        <v>35.916666666666664</v>
+      </c>
+      <c r="U43" s="29">
+        <f>E283</f>
+        <v>15.040899999999997</v>
+      </c>
+      <c r="V43" s="29">
+        <f>F283</f>
+        <v>8.6676666666666655</v>
+      </c>
+      <c r="W43" s="29">
+        <f>G283</f>
+        <v>6.7065517241379311</v>
+      </c>
+      <c r="X43" s="29">
+        <f>H283</f>
+        <v>6.6029999999999989</v>
+      </c>
+      <c r="Y43" s="29">
+        <f>I283</f>
+        <v>5.4186206896551719</v>
+      </c>
+      <c r="Z43" s="29">
+        <f>J283</f>
+        <v>6.7451612903225797</v>
+      </c>
+      <c r="AA43" s="29">
+        <f>K283</f>
+        <v>6.0913870967741923</v>
+      </c>
+      <c r="AB43" s="29">
+        <f>L283</f>
+        <v>5.8921612903225808</v>
+      </c>
+      <c r="AC43" s="29">
+        <f>M283</f>
+        <v>23.502031249999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -2247,8 +4382,47 @@
       <c r="M44" s="12">
         <v>7.02</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R44" s="29">
+        <f>B318</f>
+        <v>55.829129032258081</v>
+      </c>
+      <c r="S44" s="29">
+        <f>C318</f>
+        <v>65.01783870967742</v>
+      </c>
+      <c r="T44" s="29">
+        <f>D318</f>
+        <v>30.403870967741931</v>
+      </c>
+      <c r="U44" s="29">
+        <f>E318</f>
+        <v>13.655666666666662</v>
+      </c>
+      <c r="V44" s="29">
+        <f>F318</f>
+        <v>7.0951724137931071</v>
+      </c>
+      <c r="W44" s="29">
+        <f>G318</f>
+        <v>4.5953333333333326</v>
+      </c>
+      <c r="X44" s="29">
+        <f>H318</f>
+        <v>4.4162068965517243</v>
+      </c>
+      <c r="Y44" s="29">
+        <f>I318</f>
+        <v>5.4010000000000007</v>
+      </c>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29">
+        <f>M318</f>
+        <v>45.838774193548382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -2288,8 +4462,56 @@
       <c r="M45" s="12">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R45" s="29">
+        <f>B353</f>
+        <v>94.426562499999974</v>
+      </c>
+      <c r="S45" s="29">
+        <f>C353</f>
+        <v>92.61</v>
+      </c>
+      <c r="T45" s="29">
+        <f>D353</f>
+        <v>55.655666666666654</v>
+      </c>
+      <c r="U45" s="29">
+        <f>E353</f>
+        <v>15.020666666666669</v>
+      </c>
+      <c r="V45" s="29">
+        <f>F353</f>
+        <v>8.6782758620689648</v>
+      </c>
+      <c r="W45" s="29">
+        <f>G353</f>
+        <v>7.2203333333333335</v>
+      </c>
+      <c r="X45" s="29">
+        <f>H353</f>
+        <v>6.559310344827586</v>
+      </c>
+      <c r="Y45" s="29">
+        <f>I353</f>
+        <v>4.4633333333333329</v>
+      </c>
+      <c r="Z45" s="29">
+        <f>J353</f>
+        <v>4.214999999999999</v>
+      </c>
+      <c r="AA45" s="29">
+        <f>K353</f>
+        <v>2.9296774193548392</v>
+      </c>
+      <c r="AB45" s="29">
+        <f>L353</f>
+        <v>4.4899999999999993</v>
+      </c>
+      <c r="AC45" s="29">
+        <f>M353</f>
+        <v>24.204838709677421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>6</v>
       </c>
@@ -2329,8 +4551,56 @@
       <c r="M46" s="12">
         <v>5.82</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R46" s="29">
+        <f>B388</f>
+        <v>50.565531250000006</v>
+      </c>
+      <c r="S46" s="29">
+        <f>C388</f>
+        <v>34.16538709677419</v>
+      </c>
+      <c r="T46" s="29">
+        <f>D388</f>
+        <v>31.649466666666676</v>
+      </c>
+      <c r="U46" s="29">
+        <f>E388</f>
+        <v>14.043366666666666</v>
+      </c>
+      <c r="V46" s="29">
+        <f>F388</f>
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="W46" s="29">
+        <f>G388</f>
+        <v>6.3729655172413802</v>
+      </c>
+      <c r="X46" s="29">
+        <f>H388</f>
+        <v>6.1764137931034488</v>
+      </c>
+      <c r="Y46" s="29">
+        <f>I388</f>
+        <v>4.6343333333333332</v>
+      </c>
+      <c r="Z46" s="29">
+        <f>J388</f>
+        <v>3.6935483870967736</v>
+      </c>
+      <c r="AA46" s="29">
+        <f>K388</f>
+        <v>2.4313225806451615</v>
+      </c>
+      <c r="AB46" s="29">
+        <f>L388</f>
+        <v>1.8282631578947366</v>
+      </c>
+      <c r="AC46" s="29">
+        <f>M388</f>
+        <v>19.973451612903222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>7</v>
       </c>
@@ -2370,8 +4640,56 @@
       <c r="M47" s="12">
         <v>6.09</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R47" s="29">
+        <f>B423</f>
+        <v>61.740312500000002</v>
+      </c>
+      <c r="S47" s="29">
+        <f>C423</f>
+        <v>83.78400000000002</v>
+      </c>
+      <c r="T47" s="29">
+        <f>D423</f>
+        <v>33.343829032258064</v>
+      </c>
+      <c r="U47" s="29">
+        <f>E423</f>
+        <v>17.109793103448276</v>
+      </c>
+      <c r="V47" s="29">
+        <f>F423</f>
+        <v>9.2541666666666647</v>
+      </c>
+      <c r="W47" s="29">
+        <f>G423</f>
+        <v>6.3752758620689649</v>
+      </c>
+      <c r="X47" s="29">
+        <f>H423</f>
+        <v>4.9698666666666664</v>
+      </c>
+      <c r="Y47" s="29">
+        <f>I423</f>
+        <v>4.1592413793103447</v>
+      </c>
+      <c r="Z47" s="29">
+        <f>J423</f>
+        <v>3.7062580645161294</v>
+      </c>
+      <c r="AA47" s="29">
+        <f>K423</f>
+        <v>4.6788387096774189</v>
+      </c>
+      <c r="AB47" s="29">
+        <f>L423</f>
+        <v>11.041129032258064</v>
+      </c>
+      <c r="AC47" s="29">
+        <f>M423</f>
+        <v>33.470865625000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>8</v>
       </c>
@@ -2411,8 +4729,56 @@
       <c r="M48" s="12">
         <v>51.41</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R48" s="29">
+        <f>B458</f>
+        <v>53.568516129032275</v>
+      </c>
+      <c r="S48" s="29">
+        <f>C458</f>
+        <v>40.965032258064511</v>
+      </c>
+      <c r="T48" s="29">
+        <f>D458</f>
+        <v>26.485516129032259</v>
+      </c>
+      <c r="U48" s="29">
+        <f>E458</f>
+        <v>10.404533333333335</v>
+      </c>
+      <c r="V48" s="29">
+        <f>F458</f>
+        <v>7.275206896551726</v>
+      </c>
+      <c r="W48" s="29">
+        <f>G458</f>
+        <v>5.7042333333333346</v>
+      </c>
+      <c r="X48" s="29">
+        <f>H458</f>
+        <v>4.6288965517241376</v>
+      </c>
+      <c r="Y48" s="29">
+        <f>I458</f>
+        <v>5.7288666666666677</v>
+      </c>
+      <c r="Z48" s="29">
+        <f>J458</f>
+        <v>3.8978666666666664</v>
+      </c>
+      <c r="AA48" s="29">
+        <f>K458</f>
+        <v>3.8088709677419366</v>
+      </c>
+      <c r="AB48" s="29">
+        <f>L458</f>
+        <v>4.0191290322580651</v>
+      </c>
+      <c r="AC48" s="29">
+        <f>M458</f>
+        <v>19.369968750000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -2452,8 +4818,56 @@
       <c r="M49" s="12">
         <v>20.93</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R49" s="29">
+        <f>B493</f>
+        <v>68.523187500000006</v>
+      </c>
+      <c r="S49" s="29">
+        <f>C493</f>
+        <v>90.875096774193565</v>
+      </c>
+      <c r="T49" s="29">
+        <f>D493</f>
+        <v>40.892366666666661</v>
+      </c>
+      <c r="U49" s="29">
+        <f>E493</f>
+        <v>17.223933333333335</v>
+      </c>
+      <c r="V49" s="29">
+        <f>F493</f>
+        <v>9.44551724137931</v>
+      </c>
+      <c r="W49" s="29">
+        <f>G493</f>
+        <v>6.8260333333333358</v>
+      </c>
+      <c r="X49" s="29">
+        <f>H493</f>
+        <v>5.5862068965517251</v>
+      </c>
+      <c r="Y49" s="29">
+        <f>I493</f>
+        <v>4.4305333333333321</v>
+      </c>
+      <c r="Z49" s="29">
+        <f>J493</f>
+        <v>3.9701666666666662</v>
+      </c>
+      <c r="AA49" s="29">
+        <f>K493</f>
+        <v>2.7655806451612901</v>
+      </c>
+      <c r="AB49" s="29">
+        <f>L493</f>
+        <v>6.7753437499999993</v>
+      </c>
+      <c r="AC49" s="29">
+        <f>M493</f>
+        <v>41.596790322580645</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>10</v>
       </c>
@@ -2493,8 +4907,56 @@
       <c r="M50" s="12">
         <v>21.29</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R50" s="29">
+        <f>B528</f>
+        <v>67.090470052083347</v>
+      </c>
+      <c r="S50" s="29">
+        <f>C528</f>
+        <v>66.957666666666668</v>
+      </c>
+      <c r="T50" s="29">
+        <f>D528</f>
+        <v>57.386333333333347</v>
+      </c>
+      <c r="U50" s="29">
+        <f>E528</f>
+        <v>16.363866666666663</v>
+      </c>
+      <c r="V50" s="29">
+        <f>F528</f>
+        <v>8.3907666666666643</v>
+      </c>
+      <c r="W50" s="29">
+        <f>G528</f>
+        <v>6.3244827586206904</v>
+      </c>
+      <c r="X50" s="29">
+        <f>H528</f>
+        <v>4.7070689655172435</v>
+      </c>
+      <c r="Y50" s="29">
+        <f>I528</f>
+        <v>3.7731724137931022</v>
+      </c>
+      <c r="Z50" s="29">
+        <f>J528</f>
+        <v>3.1561290322580637</v>
+      </c>
+      <c r="AA50" s="29">
+        <f>K528</f>
+        <v>1.6367096774193548</v>
+      </c>
+      <c r="AB50" s="29">
+        <f>L528</f>
+        <v>4.9864838709677404</v>
+      </c>
+      <c r="AC50" s="29">
+        <f>M528</f>
+        <v>14.91935483870968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>11</v>
       </c>
@@ -2534,8 +4996,56 @@
       <c r="M51" s="12">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R51" s="29">
+        <f>B563</f>
+        <v>71.930312499999971</v>
+      </c>
+      <c r="S51" s="29">
+        <f>C563</f>
+        <v>68.337290322580628</v>
+      </c>
+      <c r="T51" s="29">
+        <f>D563</f>
+        <v>40.595161290322579</v>
+      </c>
+      <c r="U51" s="29">
+        <f>E563</f>
+        <v>18.739655172413791</v>
+      </c>
+      <c r="V51" s="29">
+        <f>F563</f>
+        <v>8.8246666666666691</v>
+      </c>
+      <c r="W51" s="29">
+        <f>G563</f>
+        <v>6.7343333333333337</v>
+      </c>
+      <c r="X51" s="29">
+        <f>H563</f>
+        <v>5.2389655172413798</v>
+      </c>
+      <c r="Y51" s="29">
+        <f>I563</f>
+        <v>4.2653448275862074</v>
+      </c>
+      <c r="Z51" s="29">
+        <f>J563</f>
+        <v>3.1219354838709688</v>
+      </c>
+      <c r="AA51" s="29">
+        <f>K563</f>
+        <v>1.9016129032258058</v>
+      </c>
+      <c r="AB51" s="29">
+        <f>L563</f>
+        <v>2.6165806451612905</v>
+      </c>
+      <c r="AC51" s="29">
+        <f>M563</f>
+        <v>19.00359375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>12</v>
       </c>
@@ -2575,8 +5085,56 @@
       <c r="M52" s="12">
         <v>21.16</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R52" s="29">
+        <f>B598</f>
+        <v>74.613806451612916</v>
+      </c>
+      <c r="S52" s="29">
+        <f>C598</f>
+        <v>74.597451612903228</v>
+      </c>
+      <c r="T52" s="29">
+        <f>D598</f>
+        <v>55.239032258064533</v>
+      </c>
+      <c r="U52" s="29">
+        <f>E598</f>
+        <v>17.745000000000005</v>
+      </c>
+      <c r="V52" s="29">
+        <f>F598</f>
+        <v>9.3204827586206864</v>
+      </c>
+      <c r="W52" s="29">
+        <f>G598</f>
+        <v>6.6146666666666656</v>
+      </c>
+      <c r="X52" s="29">
+        <f>H598</f>
+        <v>5.0431034482758621</v>
+      </c>
+      <c r="Y52" s="29">
+        <f>I598</f>
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="Z52" s="29">
+        <f>J598</f>
+        <v>3.4662666666666673</v>
+      </c>
+      <c r="AA52" s="29">
+        <f>K598</f>
+        <v>2.6076129032258062</v>
+      </c>
+      <c r="AB52" s="29">
+        <f>L598</f>
+        <v>5.5824193548387102</v>
+      </c>
+      <c r="AC52" s="29">
+        <f>M598</f>
+        <v>36.650281249999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>13</v>
       </c>
@@ -2616,8 +5174,56 @@
       <c r="M53" s="12">
         <v>13.989000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R53" s="29">
+        <f>B633</f>
+        <v>68.271874999999994</v>
+      </c>
+      <c r="S53" s="29">
+        <f>C633</f>
+        <v>70.300648387096786</v>
+      </c>
+      <c r="T53" s="29">
+        <f>D633</f>
+        <v>50.331800000000001</v>
+      </c>
+      <c r="U53" s="29">
+        <f>E633</f>
+        <v>16.4087</v>
+      </c>
+      <c r="V53" s="29">
+        <f>F633</f>
+        <v>8.6084137931034483</v>
+      </c>
+      <c r="W53" s="29">
+        <f>G633</f>
+        <v>6.8869333333333334</v>
+      </c>
+      <c r="X53" s="29">
+        <f>H633</f>
+        <v>5.7915172413793092</v>
+      </c>
+      <c r="Y53" s="29">
+        <f>I633</f>
+        <v>4.1528666666666663</v>
+      </c>
+      <c r="Z53" s="29">
+        <f>J633</f>
+        <v>3.6642000000000001</v>
+      </c>
+      <c r="AA53" s="29">
+        <f>K633</f>
+        <v>2.0742258064516128</v>
+      </c>
+      <c r="AB53" s="29">
+        <f>L633</f>
+        <v>1.5539374999999997</v>
+      </c>
+      <c r="AC53" s="29">
+        <f>M633</f>
+        <v>19.604129032258065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>14</v>
       </c>
@@ -2657,8 +5263,56 @@
       <c r="M54" s="12">
         <v>17.28</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R54" s="29">
+        <f>B668</f>
+        <v>64.819249999999997</v>
+      </c>
+      <c r="S54" s="29">
+        <f>C668</f>
+        <v>65.475225806451604</v>
+      </c>
+      <c r="T54" s="29">
+        <f>D668</f>
+        <v>39.759233333333341</v>
+      </c>
+      <c r="U54" s="29">
+        <f>E668</f>
+        <v>13.717733333333333</v>
+      </c>
+      <c r="V54" s="29">
+        <f>F668</f>
+        <v>7.6434333333333369</v>
+      </c>
+      <c r="W54" s="29">
+        <f>G668</f>
+        <v>5.7699655172413786</v>
+      </c>
+      <c r="X54" s="29">
+        <f>H668</f>
+        <v>5.6343793103448272</v>
+      </c>
+      <c r="Y54" s="29">
+        <f>I668</f>
+        <v>4.84</v>
+      </c>
+      <c r="Z54" s="29">
+        <f>J668</f>
+        <v>3.0084193548387095</v>
+      </c>
+      <c r="AA54" s="29">
+        <f>K668</f>
+        <v>3.3345161290322585</v>
+      </c>
+      <c r="AB54" s="29">
+        <f>L668</f>
+        <v>11.669774193548385</v>
+      </c>
+      <c r="AC54" s="29">
+        <f>M668</f>
+        <v>70.99464516129035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>15</v>
       </c>
@@ -2698,8 +5352,56 @@
       <c r="M55" s="12">
         <v>14.62</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R55" s="29">
+        <f>B703</f>
+        <v>110.64565624999999</v>
+      </c>
+      <c r="S55" s="29">
+        <f>C703</f>
+        <v>76.755193548387084</v>
+      </c>
+      <c r="T55" s="29">
+        <f>D703</f>
+        <v>30.805838709677424</v>
+      </c>
+      <c r="U55" s="29">
+        <f>E703</f>
+        <v>18.603137931034478</v>
+      </c>
+      <c r="V55" s="29">
+        <f>F703</f>
+        <v>9.7732666666666663</v>
+      </c>
+      <c r="W55" s="29">
+        <f>G703</f>
+        <v>7.133700000000001</v>
+      </c>
+      <c r="X55" s="29">
+        <f>H703</f>
+        <v>6.5141724137931005</v>
+      </c>
+      <c r="Y55" s="29">
+        <f>I703</f>
+        <v>5.4528333333333334</v>
+      </c>
+      <c r="Z55" s="29">
+        <f>J703</f>
+        <v>3.9568999999999983</v>
+      </c>
+      <c r="AA55" s="29">
+        <f>K703</f>
+        <v>2.419451612903226</v>
+      </c>
+      <c r="AB55" s="29">
+        <f>L703</f>
+        <v>3.7739032258064515</v>
+      </c>
+      <c r="AC55" s="29">
+        <f>M703</f>
+        <v>20.758343750000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>16</v>
       </c>
@@ -2739,8 +5441,56 @@
       <c r="M56" s="12">
         <v>25.097999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R56" s="29">
+        <f>B738</f>
+        <v>73.940290322580637</v>
+      </c>
+      <c r="S56" s="29">
+        <f>C738</f>
+        <v>59.781000000000006</v>
+      </c>
+      <c r="T56" s="29">
+        <f>D738</f>
+        <v>34.140419354838713</v>
+      </c>
+      <c r="U56" s="29">
+        <f>E738</f>
+        <v>16.520866666666667</v>
+      </c>
+      <c r="V56" s="29">
+        <f>F738</f>
+        <v>9.0616206896551716</v>
+      </c>
+      <c r="W56" s="29">
+        <f>G738</f>
+        <v>8.2641666666666662</v>
+      </c>
+      <c r="X56" s="29">
+        <f>H738</f>
+        <v>6.0609999999999999</v>
+      </c>
+      <c r="Y56" s="29">
+        <f>I738</f>
+        <v>5.6435333333333348</v>
+      </c>
+      <c r="Z56" s="29">
+        <f>J738</f>
+        <v>5.0915666666666661</v>
+      </c>
+      <c r="AA56" s="29">
+        <f>K738</f>
+        <v>4.7670322580645177</v>
+      </c>
+      <c r="AB56" s="29">
+        <f>L738</f>
+        <v>2.6033125000000004</v>
+      </c>
+      <c r="AC56" s="29">
+        <f>M738</f>
+        <v>18.765677419354837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>17</v>
       </c>
@@ -2780,8 +5530,56 @@
       <c r="M57" s="12">
         <v>32.770000000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R57" s="29">
+        <f>B773</f>
+        <v>67.385406250000003</v>
+      </c>
+      <c r="S57" s="29">
+        <f>C773</f>
+        <v>58.640032258064515</v>
+      </c>
+      <c r="T57" s="29">
+        <f>D773</f>
+        <v>35.21423333333334</v>
+      </c>
+      <c r="U57" s="29">
+        <f>E773</f>
+        <v>12.8948</v>
+      </c>
+      <c r="V57" s="29">
+        <f>F773</f>
+        <v>7.8916551724137944</v>
+      </c>
+      <c r="W57" s="29">
+        <f>G773</f>
+        <v>5.9090333333333351</v>
+      </c>
+      <c r="X57" s="29">
+        <f>H773</f>
+        <v>5.2724137931034507</v>
+      </c>
+      <c r="Y57" s="29">
+        <f>I773</f>
+        <v>3.9391333333333325</v>
+      </c>
+      <c r="Z57" s="29">
+        <f>J773</f>
+        <v>3.2854999999999999</v>
+      </c>
+      <c r="AA57" s="29">
+        <f>K773</f>
+        <v>2.5699677419354834</v>
+      </c>
+      <c r="AB57" s="29">
+        <f>L773</f>
+        <v>5.4387499999999998</v>
+      </c>
+      <c r="AC57" s="29">
+        <f>M773</f>
+        <v>44.828580645161296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>18</v>
       </c>
@@ -2821,8 +5619,56 @@
       <c r="M58" s="12">
         <v>15.58</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R58" s="29">
+        <f>B808</f>
+        <v>130.71284374999999</v>
+      </c>
+      <c r="S58" s="29">
+        <f>C808</f>
+        <v>44.635580645161298</v>
+      </c>
+      <c r="T58" s="29">
+        <f>D808</f>
+        <v>54.539133333333332</v>
+      </c>
+      <c r="U58" s="29">
+        <f>E808</f>
+        <v>22.448299999999993</v>
+      </c>
+      <c r="V58" s="29">
+        <f>F808</f>
+        <v>10.109499999999997</v>
+      </c>
+      <c r="W58" s="29">
+        <f>G808</f>
+        <v>6.9718965517241376</v>
+      </c>
+      <c r="X58" s="29">
+        <f>H808</f>
+        <v>5.7861379310344816</v>
+      </c>
+      <c r="Y58" s="29">
+        <f>I808</f>
+        <v>4.8101290322580645</v>
+      </c>
+      <c r="Z58" s="29">
+        <f>J808</f>
+        <v>4.1911290322580648</v>
+      </c>
+      <c r="AA58" s="29">
+        <f>K808</f>
+        <v>5.0850967741935467</v>
+      </c>
+      <c r="AB58" s="29">
+        <f>L808</f>
+        <v>6.3417741935483862</v>
+      </c>
+      <c r="AC58" s="29">
+        <f>M808</f>
+        <v>55.599935483870965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>19</v>
       </c>
@@ -2862,8 +5708,56 @@
       <c r="M59" s="12">
         <v>13.73</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R59" s="29">
+        <f>B843</f>
+        <v>68.643062500000013</v>
+      </c>
+      <c r="S59" s="29">
+        <f>C843</f>
+        <v>57.671322580645153</v>
+      </c>
+      <c r="T59" s="29">
+        <f>D843</f>
+        <v>39.636774193548391</v>
+      </c>
+      <c r="U59" s="29">
+        <f>E843</f>
+        <v>13.718199999999998</v>
+      </c>
+      <c r="V59" s="29">
+        <f>F843</f>
+        <v>7.6512068965517228</v>
+      </c>
+      <c r="W59" s="29">
+        <f>G843</f>
+        <v>5.6863666666666663</v>
+      </c>
+      <c r="X59" s="29">
+        <f>H843</f>
+        <v>4.8135862068965514</v>
+      </c>
+      <c r="Y59" s="29">
+        <f>I843</f>
+        <v>3.7614999999999998</v>
+      </c>
+      <c r="Z59" s="29">
+        <f>J843</f>
+        <v>4.2008333333333328</v>
+      </c>
+      <c r="AA59" s="29">
+        <f>K843</f>
+        <v>2.6687096774193542</v>
+      </c>
+      <c r="AB59" s="29">
+        <f>L843</f>
+        <v>3.5380000000000003</v>
+      </c>
+      <c r="AC59" s="29">
+        <f>M843</f>
+        <v>9.4121249999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>20</v>
       </c>
@@ -2903,8 +5797,56 @@
       <c r="M60" s="12">
         <v>14.52</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R60" s="29">
+        <f>B878</f>
+        <v>48.653387096774196</v>
+      </c>
+      <c r="S60" s="29">
+        <f>C878</f>
+        <v>64.625967741935469</v>
+      </c>
+      <c r="T60" s="29">
+        <f>D878</f>
+        <v>23.309967741935488</v>
+      </c>
+      <c r="U60" s="29">
+        <f>E878</f>
+        <v>10.546733333333332</v>
+      </c>
+      <c r="V60" s="29">
+        <f>F878</f>
+        <v>6.6558965517241386</v>
+      </c>
+      <c r="W60" s="29">
+        <f>G878</f>
+        <v>5.3209999999999997</v>
+      </c>
+      <c r="X60" s="29">
+        <f>H878</f>
+        <v>6.12351724137931</v>
+      </c>
+      <c r="Y60" s="29">
+        <f>I878</f>
+        <v>5.4975000000000005</v>
+      </c>
+      <c r="Z60" s="29">
+        <f>J878</f>
+        <v>4.2669666666666659</v>
+      </c>
+      <c r="AA60" s="29">
+        <f>K878</f>
+        <v>2.863967741935483</v>
+      </c>
+      <c r="AB60" s="29">
+        <f>L878</f>
+        <v>3.1744062499999992</v>
+      </c>
+      <c r="AC60" s="29">
+        <f>M878</f>
+        <v>14.810838709677418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>21</v>
       </c>
@@ -2944,8 +5886,56 @@
       <c r="M61" s="12">
         <v>13.56</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R61" s="29">
+        <f>B913</f>
+        <v>41.2280625</v>
+      </c>
+      <c r="S61" s="29">
+        <f>C913</f>
+        <v>63.799258064516131</v>
+      </c>
+      <c r="T61" s="29">
+        <f>D913</f>
+        <v>47.028033333333319</v>
+      </c>
+      <c r="U61" s="29">
+        <f>E913</f>
+        <v>15.196533333333337</v>
+      </c>
+      <c r="V61" s="29">
+        <f>F913</f>
+        <v>8.1431666666666658</v>
+      </c>
+      <c r="W61" s="29">
+        <f>G913</f>
+        <v>6.3187931034482752</v>
+      </c>
+      <c r="X61" s="29">
+        <f>H913</f>
+        <v>6.0484137931034478</v>
+      </c>
+      <c r="Y61" s="29">
+        <f>I913</f>
+        <v>5.3208666666666655</v>
+      </c>
+      <c r="Z61" s="29">
+        <f>J913</f>
+        <v>4.8971</v>
+      </c>
+      <c r="AA61" s="29">
+        <f>K913</f>
+        <v>8.2467741935483865</v>
+      </c>
+      <c r="AB61" s="29">
+        <f>L913</f>
+        <v>8.8260312499999998</v>
+      </c>
+      <c r="AC61" s="29">
+        <f>M913</f>
+        <v>73.217903225806452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>22</v>
       </c>
@@ -2985,8 +5975,56 @@
       <c r="M62" s="12">
         <v>41.348999999999997</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R62" s="29">
+        <f>B948</f>
+        <v>83.259031249999992</v>
+      </c>
+      <c r="S62" s="29">
+        <f>C948</f>
+        <v>81.706580645161324</v>
+      </c>
+      <c r="T62" s="29">
+        <f>D948</f>
+        <v>56.914733333333324</v>
+      </c>
+      <c r="U62" s="29">
+        <f>E948</f>
+        <v>16.99123333333333</v>
+      </c>
+      <c r="V62" s="29">
+        <f>F948</f>
+        <v>8.4158200000000019</v>
+      </c>
+      <c r="W62" s="29">
+        <f>G948</f>
+        <v>6.1162758620689663</v>
+      </c>
+      <c r="X62" s="29">
+        <f>H948</f>
+        <v>4.8081000000000005</v>
+      </c>
+      <c r="Y62" s="29">
+        <f>I948</f>
+        <v>3.7779655172413791</v>
+      </c>
+      <c r="Z62" s="29">
+        <f>J948</f>
+        <v>3.0910322580645162</v>
+      </c>
+      <c r="AA62" s="29">
+        <f>K948</f>
+        <v>5.307483870967741</v>
+      </c>
+      <c r="AB62" s="29">
+        <f>L948</f>
+        <v>8.0459999999999994</v>
+      </c>
+      <c r="AC62" s="29">
+        <f>M948</f>
+        <v>56.021225806451611</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>23</v>
       </c>
@@ -3026,8 +6064,56 @@
       <c r="M63" s="12">
         <v>24.42</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R63" s="29">
+        <f>B983</f>
+        <v>73.540187500000002</v>
+      </c>
+      <c r="S63" s="29">
+        <f>C983</f>
+        <v>104.51203225806452</v>
+      </c>
+      <c r="T63" s="29">
+        <f>D983</f>
+        <v>45.665645161290328</v>
+      </c>
+      <c r="U63" s="29">
+        <f>E983</f>
+        <v>39.51700000000001</v>
+      </c>
+      <c r="V63" s="29">
+        <f>F983</f>
+        <v>14.676586206896548</v>
+      </c>
+      <c r="W63" s="29">
+        <f>G983</f>
+        <v>9.4721666666666628</v>
+      </c>
+      <c r="X63" s="29">
+        <f>H983</f>
+        <v>8.0347586206896562</v>
+      </c>
+      <c r="Y63" s="29">
+        <f>I983</f>
+        <v>5.8133666666666661</v>
+      </c>
+      <c r="Z63" s="29">
+        <f>J983</f>
+        <v>4.210700000000001</v>
+      </c>
+      <c r="AA63" s="29">
+        <f>K983</f>
+        <v>5.4619354838709686</v>
+      </c>
+      <c r="AB63" s="29">
+        <f>L983</f>
+        <v>7.3120000000000012</v>
+      </c>
+      <c r="AC63" s="29">
+        <f>M983</f>
+        <v>29.324718750000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>24</v>
       </c>
@@ -3067,6 +6153,33 @@
       <c r="M64" s="12">
         <v>21.67</v>
       </c>
+      <c r="R64" s="29">
+        <f>B1018</f>
+        <v>53.415225806451602</v>
+      </c>
+      <c r="S64" s="29">
+        <f>C1018</f>
+        <v>54.419387096774194</v>
+      </c>
+      <c r="T64" s="29">
+        <f>D1018</f>
+        <v>83.805322580645154</v>
+      </c>
+      <c r="U64" s="29">
+        <f>E1018</f>
+        <v>27.691099999999999</v>
+      </c>
+      <c r="V64" s="29">
+        <f>F1018</f>
+        <v>10.800586206896551</v>
+      </c>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -3362,9 +6475,54 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
+      <c r="B73" s="33">
+        <f>AVERAGE(B41:B72)</f>
+        <v>65.76906249999999</v>
+      </c>
+      <c r="C73" s="33">
+        <f t="shared" ref="C73" si="6">AVERAGE(C41:C72)</f>
+        <v>69.926451612903207</v>
+      </c>
+      <c r="D73" s="33">
+        <f t="shared" ref="D73" si="7">AVERAGE(D41:D72)</f>
+        <v>26.752903225806456</v>
+      </c>
+      <c r="E73" s="33">
+        <f t="shared" ref="E73" si="8">AVERAGE(E41:E72)</f>
+        <v>10.511666666666667</v>
+      </c>
+      <c r="F73" s="33">
+        <f t="shared" ref="F73" si="9">AVERAGE(F41:F72)</f>
+        <v>8.2096551724137914</v>
+      </c>
+      <c r="G73" s="33">
+        <f t="shared" ref="G73" si="10">AVERAGE(G41:G72)</f>
+        <v>6.1170000000000009</v>
+      </c>
+      <c r="H73" s="33">
+        <f t="shared" ref="H73" si="11">AVERAGE(H41:H72)</f>
+        <v>6.6275862068965523</v>
+      </c>
+      <c r="I73" s="33">
+        <f t="shared" ref="I73" si="12">AVERAGE(I41:I72)</f>
+        <v>6.1359999999999992</v>
+      </c>
+      <c r="J73" s="33">
+        <f t="shared" ref="J73" si="13">AVERAGE(J41:J72)</f>
+        <v>3.847</v>
+      </c>
+      <c r="K73" s="33">
+        <f t="shared" ref="K73" si="14">AVERAGE(K41:K72)</f>
+        <v>2.0877419354838711</v>
+      </c>
+      <c r="L73" s="33">
+        <f t="shared" ref="L73" si="15">AVERAGE(L41:L72)</f>
+        <v>2.8166562500000003</v>
+      </c>
+      <c r="M73" s="33">
+        <f t="shared" ref="M73" si="16">AVERAGE(M41:M72)</f>
+        <v>28.786967741935481</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -3455,7 +6613,7 @@
       <c r="M76" s="12">
         <v>2.34</v>
       </c>
-      <c r="N76" s="32">
+      <c r="N76" s="29">
         <f>AVERAGE(B76:M107)</f>
         <v>29.269117486338793</v>
       </c>
@@ -4697,9 +7855,54 @@
     </row>
     <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="3"/>
+      <c r="B108" s="33">
+        <f>AVERAGE(B76:B107)</f>
+        <v>97.308125000000032</v>
+      </c>
+      <c r="C108" s="33">
+        <f t="shared" ref="C108" si="17">AVERAGE(C76:C107)</f>
+        <v>92.848387096774189</v>
+      </c>
+      <c r="D108" s="33">
+        <f t="shared" ref="D108" si="18">AVERAGE(D76:D107)</f>
+        <v>50.073666666666668</v>
+      </c>
+      <c r="E108" s="33">
+        <f t="shared" ref="E108" si="19">AVERAGE(E76:E107)</f>
+        <v>20.305</v>
+      </c>
+      <c r="F108" s="33">
+        <f t="shared" ref="F108" si="20">AVERAGE(F76:F107)</f>
+        <v>9.4963333333333324</v>
+      </c>
+      <c r="G108" s="33">
+        <f t="shared" ref="G108" si="21">AVERAGE(G76:G107)</f>
+        <v>6.9452333333333343</v>
+      </c>
+      <c r="H108" s="33">
+        <f t="shared" ref="H108" si="22">AVERAGE(H76:H107)</f>
+        <v>6.3124137931034481</v>
+      </c>
+      <c r="I108" s="33">
+        <f t="shared" ref="I108" si="23">AVERAGE(I76:I107)</f>
+        <v>4.3993333333333338</v>
+      </c>
+      <c r="J108" s="33">
+        <f t="shared" ref="J108" si="24">AVERAGE(J76:J107)</f>
+        <v>4.4883333333333333</v>
+      </c>
+      <c r="K108" s="33">
+        <f t="shared" ref="K108" si="25">AVERAGE(K76:K107)</f>
+        <v>3.9435483870967749</v>
+      </c>
+      <c r="L108" s="33">
+        <f t="shared" ref="L108" si="26">AVERAGE(L76:L107)</f>
+        <v>3.1909375000000004</v>
+      </c>
+      <c r="M108" s="33">
+        <f t="shared" ref="M108" si="27">AVERAGE(M76:M107)</f>
+        <v>46.505806451612898</v>
+      </c>
     </row>
     <row r="109" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -4790,7 +7993,7 @@
       <c r="M111" s="12">
         <v>6.16</v>
       </c>
-      <c r="N111" s="32">
+      <c r="N111" s="29">
         <f>AVERAGE(B111:M142)</f>
         <v>30.640712328767108</v>
       </c>
@@ -6030,9 +9233,54 @@
     </row>
     <row r="143" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="3"/>
+      <c r="B143" s="33">
+        <f>AVERAGE(B111:B142)</f>
+        <v>125.20281250000002</v>
+      </c>
+      <c r="C143" s="33">
+        <f t="shared" ref="C143" si="28">AVERAGE(C111:C142)</f>
+        <v>70.750967741935469</v>
+      </c>
+      <c r="D143" s="33">
+        <f t="shared" ref="D143" si="29">AVERAGE(D111:D142)</f>
+        <v>34.590666666666678</v>
+      </c>
+      <c r="E143" s="33">
+        <f t="shared" ref="E143" si="30">AVERAGE(E111:E142)</f>
+        <v>14.878333333333334</v>
+      </c>
+      <c r="F143" s="33">
+        <f t="shared" ref="F143" si="31">AVERAGE(F111:F142)</f>
+        <v>11.494000000000002</v>
+      </c>
+      <c r="G143" s="33">
+        <f t="shared" ref="G143" si="32">AVERAGE(G111:G142)</f>
+        <v>8.0400000000000027</v>
+      </c>
+      <c r="H143" s="33">
+        <f t="shared" ref="H143" si="33">AVERAGE(H111:H142)</f>
+        <v>5.5073333333333334</v>
+      </c>
+      <c r="I143" s="33">
+        <f t="shared" ref="I143" si="34">AVERAGE(I111:I142)</f>
+        <v>5.0917241379310347</v>
+      </c>
+      <c r="J143" s="33">
+        <f t="shared" ref="J143" si="35">AVERAGE(J111:J142)</f>
+        <v>5.0993333333333331</v>
+      </c>
+      <c r="K143" s="33">
+        <f t="shared" ref="K143" si="36">AVERAGE(K111:K142)</f>
+        <v>4.6358064516129041</v>
+      </c>
+      <c r="L143" s="33">
+        <f t="shared" ref="L143" si="37">AVERAGE(L111:L142)</f>
+        <v>3.9825806451612897</v>
+      </c>
+      <c r="M143" s="33">
+        <f t="shared" ref="M143" si="38">AVERAGE(M111:M142)</f>
+        <v>68.406562500000021</v>
+      </c>
     </row>
     <row r="144" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
@@ -6123,7 +9371,7 @@
       <c r="M146" s="12">
         <v>15.82</v>
       </c>
-      <c r="N146" s="32">
+      <c r="N146" s="29">
         <f>AVERAGE(B146:M177)</f>
         <v>31.131698630136992</v>
       </c>
@@ -7363,9 +10611,54 @@
     </row>
     <row r="178" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="3"/>
+      <c r="B178" s="33">
+        <f>AVERAGE(B146:B177)</f>
+        <v>96.429999999999978</v>
+      </c>
+      <c r="C178" s="33">
+        <f t="shared" ref="C178" si="39">AVERAGE(C146:C177)</f>
+        <v>123.96838709677422</v>
+      </c>
+      <c r="D178" s="33">
+        <f t="shared" ref="D178" si="40">AVERAGE(D146:D177)</f>
+        <v>45.182903225806442</v>
+      </c>
+      <c r="E178" s="33">
+        <f t="shared" ref="E178" si="41">AVERAGE(E146:E177)</f>
+        <v>18.232000000000003</v>
+      </c>
+      <c r="F178" s="33">
+        <f t="shared" ref="F178" si="42">AVERAGE(F146:F177)</f>
+        <v>11.387931034482754</v>
+      </c>
+      <c r="G178" s="33">
+        <f t="shared" ref="G178" si="43">AVERAGE(G146:G177)</f>
+        <v>7.0836666666666668</v>
+      </c>
+      <c r="H178" s="33">
+        <f t="shared" ref="H178" si="44">AVERAGE(H146:H177)</f>
+        <v>5.7299999999999986</v>
+      </c>
+      <c r="I178" s="33">
+        <f t="shared" ref="I178" si="45">AVERAGE(I146:I177)</f>
+        <v>4.5113333333333339</v>
+      </c>
+      <c r="J178" s="33">
+        <f t="shared" ref="J178" si="46">AVERAGE(J146:J177)</f>
+        <v>3.7753333333333332</v>
+      </c>
+      <c r="K178" s="33">
+        <f t="shared" ref="K178" si="47">AVERAGE(K146:K177)</f>
+        <v>2.3164516129032258</v>
+      </c>
+      <c r="L178" s="33">
+        <f t="shared" ref="L178" si="48">AVERAGE(L146:L177)</f>
+        <v>9.9458064516129046</v>
+      </c>
+      <c r="M178" s="33">
+        <f t="shared" ref="M178" si="49">AVERAGE(M146:M177)</f>
+        <v>38.919687499999995</v>
+      </c>
     </row>
     <row r="179" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
@@ -7456,7 +10749,7 @@
       <c r="M181" s="12">
         <v>34.68</v>
       </c>
-      <c r="N181" s="32">
+      <c r="N181" s="29">
         <f>AVERAGE(B181:M212)</f>
         <v>33.054675824175838</v>
       </c>
@@ -8694,9 +11987,54 @@
     </row>
     <row r="213" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="3"/>
+      <c r="B213" s="33">
+        <f>AVERAGE(B181:B212)</f>
+        <v>60.746129032258061</v>
+      </c>
+      <c r="C213" s="33">
+        <f t="shared" ref="C213" si="50">AVERAGE(C181:C212)</f>
+        <v>110.90968750000002</v>
+      </c>
+      <c r="D213" s="33">
+        <f t="shared" ref="D213" si="51">AVERAGE(D181:D212)</f>
+        <v>73.757866666666658</v>
+      </c>
+      <c r="E213" s="33">
+        <f t="shared" ref="E213" si="52">AVERAGE(E181:E212)</f>
+        <v>20.939166666666669</v>
+      </c>
+      <c r="F213" s="33">
+        <f t="shared" ref="F213" si="53">AVERAGE(F181:F212)</f>
+        <v>10.40344827586207</v>
+      </c>
+      <c r="G213" s="33">
+        <f t="shared" ref="G213" si="54">AVERAGE(G181:G212)</f>
+        <v>7.5724333333333336</v>
+      </c>
+      <c r="H213" s="33">
+        <f t="shared" ref="H213" si="55">AVERAGE(H181:H212)</f>
+        <v>6.4764827586206888</v>
+      </c>
+      <c r="I213" s="33">
+        <f t="shared" ref="I213" si="56">AVERAGE(I181:I212)</f>
+        <v>5.2913333333333323</v>
+      </c>
+      <c r="J213" s="33">
+        <f t="shared" ref="J213" si="57">AVERAGE(J181:J212)</f>
+        <v>3.9739999999999993</v>
+      </c>
+      <c r="K213" s="33">
+        <f t="shared" ref="K213" si="58">AVERAGE(K181:K212)</f>
+        <v>5.4279999999999999</v>
+      </c>
+      <c r="L213" s="33">
+        <f t="shared" ref="L213" si="59">AVERAGE(L181:L212)</f>
+        <v>25.826562499999998</v>
+      </c>
+      <c r="M213" s="33">
+        <f t="shared" ref="M213" si="60">AVERAGE(M181:M212)</f>
+        <v>57.251935483870973</v>
+      </c>
     </row>
     <row r="214" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
@@ -8787,7 +12125,7 @@
       <c r="M216" s="12">
         <v>43.48</v>
       </c>
-      <c r="N216" s="32">
+      <c r="N216" s="29">
         <f>AVERAGE(B216:M247)</f>
         <v>32.058794520547956</v>
       </c>
@@ -10027,9 +13365,54 @@
     </row>
     <row r="248" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="3"/>
+      <c r="B248" s="33">
+        <f>AVERAGE(B216:B247)</f>
+        <v>90.971875000000011</v>
+      </c>
+      <c r="C248" s="33">
+        <f t="shared" ref="C248" si="61">AVERAGE(C216:C247)</f>
+        <v>117.17419354838711</v>
+      </c>
+      <c r="D248" s="33">
+        <f t="shared" ref="D248" si="62">AVERAGE(D216:D247)</f>
+        <v>64.708000000000013</v>
+      </c>
+      <c r="E248" s="33">
+        <f t="shared" ref="E248" si="63">AVERAGE(E216:E247)</f>
+        <v>17.108666666666661</v>
+      </c>
+      <c r="F248" s="33">
+        <f t="shared" ref="F248" si="64">AVERAGE(F216:F247)</f>
+        <v>10.143666666666665</v>
+      </c>
+      <c r="G248" s="33">
+        <f t="shared" ref="G248" si="65">AVERAGE(G216:G247)</f>
+        <v>7.3424137931034474</v>
+      </c>
+      <c r="H248" s="33">
+        <f t="shared" ref="H248" si="66">AVERAGE(H216:H247)</f>
+        <v>6.0462068965517251</v>
+      </c>
+      <c r="I248" s="33">
+        <f t="shared" ref="I248" si="67">AVERAGE(I216:I247)</f>
+        <v>5.3056666666666672</v>
+      </c>
+      <c r="J248" s="33">
+        <f t="shared" ref="J248" si="68">AVERAGE(J216:J247)</f>
+        <v>4.1206451612903221</v>
+      </c>
+      <c r="K248" s="33">
+        <f t="shared" ref="K248" si="69">AVERAGE(K216:K247)</f>
+        <v>5.3246666666666673</v>
+      </c>
+      <c r="L248" s="33">
+        <f t="shared" ref="L248" si="70">AVERAGE(L216:L247)</f>
+        <v>10.667187499999999</v>
+      </c>
+      <c r="M248" s="33">
+        <f t="shared" ref="M248" si="71">AVERAGE(M216:M247)</f>
+        <v>39.447741935483869</v>
+      </c>
     </row>
     <row r="249" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
@@ -10120,7 +13503,7 @@
       <c r="M251" s="12">
         <v>8.9499999999999993</v>
       </c>
-      <c r="N251" s="32">
+      <c r="N251" s="29">
         <f>AVERAGE(B251:M282)</f>
         <v>26.759762295081952</v>
       </c>
@@ -11360,20 +14743,56 @@
         <v>39.43</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="15"/>
-      <c r="B283" s="16"/>
-      <c r="C283" s="17"/>
-      <c r="D283" s="18"/>
-      <c r="E283" s="18"/>
-      <c r="F283" s="18"/>
-      <c r="G283" s="18"/>
-      <c r="H283" s="18"/>
-      <c r="I283" s="18"/>
-      <c r="J283" s="18"/>
-      <c r="K283" s="18"/>
-      <c r="L283" s="16"/>
-      <c r="M283" s="17"/>
+      <c r="B283" s="33">
+        <f>AVERAGE(B251:B282)</f>
+        <v>81.160656250000017</v>
+      </c>
+      <c r="C283" s="33">
+        <f t="shared" ref="C283" si="72">AVERAGE(C251:C282)</f>
+        <v>113.73548387096771</v>
+      </c>
+      <c r="D283" s="33">
+        <f t="shared" ref="D283" si="73">AVERAGE(D251:D282)</f>
+        <v>35.916666666666664</v>
+      </c>
+      <c r="E283" s="33">
+        <f t="shared" ref="E283" si="74">AVERAGE(E251:E282)</f>
+        <v>15.040899999999997</v>
+      </c>
+      <c r="F283" s="33">
+        <f t="shared" ref="F283" si="75">AVERAGE(F251:F282)</f>
+        <v>8.6676666666666655</v>
+      </c>
+      <c r="G283" s="33">
+        <f t="shared" ref="G283" si="76">AVERAGE(G251:G282)</f>
+        <v>6.7065517241379311</v>
+      </c>
+      <c r="H283" s="33">
+        <f t="shared" ref="H283" si="77">AVERAGE(H251:H282)</f>
+        <v>6.6029999999999989</v>
+      </c>
+      <c r="I283" s="33">
+        <f t="shared" ref="I283" si="78">AVERAGE(I251:I282)</f>
+        <v>5.4186206896551719</v>
+      </c>
+      <c r="J283" s="33">
+        <f t="shared" ref="J283" si="79">AVERAGE(J251:J282)</f>
+        <v>6.7451612903225797</v>
+      </c>
+      <c r="K283" s="33">
+        <f t="shared" ref="K283" si="80">AVERAGE(K251:K282)</f>
+        <v>6.0913870967741923</v>
+      </c>
+      <c r="L283" s="33">
+        <f t="shared" ref="L283" si="81">AVERAGE(L251:L282)</f>
+        <v>5.8921612903225808</v>
+      </c>
+      <c r="M283" s="33">
+        <f t="shared" ref="M283" si="82">AVERAGE(M251:M282)</f>
+        <v>23.502031249999995</v>
+      </c>
     </row>
     <row r="284" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
@@ -11458,7 +14877,7 @@
       <c r="M286" s="12">
         <v>8.6</v>
       </c>
-      <c r="N286" s="32">
+      <c r="N286" s="29">
         <f>AVERAGE(B286:M317)</f>
         <v>27.95693650793649</v>
       </c>
@@ -11803,12 +15222,12 @@
       <c r="H296" s="11">
         <v>3.89</v>
       </c>
-      <c r="I296" s="33" t="s">
+      <c r="I296" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J296" s="34"/>
-      <c r="K296" s="34"/>
-      <c r="L296" s="35"/>
+      <c r="J296" s="31"/>
+      <c r="K296" s="31"/>
+      <c r="L296" s="32"/>
       <c r="M296" s="12">
         <v>28.69</v>
       </c>
@@ -12478,20 +15897,56 @@
       <c r="L317" s="13"/>
       <c r="M317" s="12"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="15"/>
-      <c r="B318" s="16"/>
-      <c r="C318" s="17"/>
-      <c r="D318" s="18"/>
-      <c r="E318" s="18"/>
-      <c r="F318" s="18"/>
-      <c r="G318" s="18"/>
-      <c r="H318" s="18"/>
-      <c r="I318" s="18"/>
-      <c r="J318" s="18"/>
-      <c r="K318" s="18"/>
-      <c r="L318" s="16"/>
-      <c r="M318" s="17"/>
+      <c r="B318" s="33">
+        <f>AVERAGE(B286:B317)</f>
+        <v>55.829129032258081</v>
+      </c>
+      <c r="C318" s="33">
+        <f t="shared" ref="C318" si="83">AVERAGE(C286:C317)</f>
+        <v>65.01783870967742</v>
+      </c>
+      <c r="D318" s="33">
+        <f t="shared" ref="D318" si="84">AVERAGE(D286:D317)</f>
+        <v>30.403870967741931</v>
+      </c>
+      <c r="E318" s="33">
+        <f t="shared" ref="E318" si="85">AVERAGE(E286:E317)</f>
+        <v>13.655666666666662</v>
+      </c>
+      <c r="F318" s="33">
+        <f t="shared" ref="F318" si="86">AVERAGE(F286:F317)</f>
+        <v>7.0951724137931071</v>
+      </c>
+      <c r="G318" s="33">
+        <f t="shared" ref="G318" si="87">AVERAGE(G286:G317)</f>
+        <v>4.5953333333333326</v>
+      </c>
+      <c r="H318" s="33">
+        <f t="shared" ref="H318" si="88">AVERAGE(H286:H317)</f>
+        <v>4.4162068965517243</v>
+      </c>
+      <c r="I318" s="33">
+        <f t="shared" ref="I318" si="89">AVERAGE(I286:I317)</f>
+        <v>5.4010000000000007</v>
+      </c>
+      <c r="J318" s="33" t="e">
+        <f t="shared" ref="J318" si="90">AVERAGE(J286:J317)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K318" s="33" t="e">
+        <f t="shared" ref="K318" si="91">AVERAGE(K286:K317)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L318" s="33" t="e">
+        <f t="shared" ref="L318" si="92">AVERAGE(L286:L317)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M318" s="33">
+        <f t="shared" ref="M318" si="93">AVERAGE(M286:M317)</f>
+        <v>45.838774193548382</v>
+      </c>
     </row>
     <row r="319" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
@@ -12549,7 +16004,7 @@
       <c r="B321" s="12">
         <v>54.76</v>
       </c>
-      <c r="C321" s="19">
+      <c r="C321" s="16">
         <v>255.2</v>
       </c>
       <c r="D321" s="12">
@@ -12573,16 +16028,16 @@
       <c r="J321" s="12">
         <v>4.42</v>
       </c>
-      <c r="K321" s="21">
+      <c r="K321" s="18">
         <v>3.3</v>
       </c>
-      <c r="L321" s="21">
+      <c r="L321" s="18">
         <v>1.28</v>
       </c>
-      <c r="M321" s="22">
+      <c r="M321" s="19">
         <v>9.42</v>
       </c>
-      <c r="N321" s="32">
+      <c r="N321" s="29">
         <f>AVERAGE(B321:M352)</f>
         <v>27.168630136986309</v>
       </c>
@@ -12594,7 +16049,7 @@
       <c r="B322" s="12">
         <v>57.33</v>
       </c>
-      <c r="C322" s="20">
+      <c r="C322" s="17">
         <v>162.1</v>
       </c>
       <c r="D322" s="12">
@@ -12624,7 +16079,7 @@
       <c r="L322" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M322" s="20">
+      <c r="M322" s="17">
         <v>8.07</v>
       </c>
     </row>
@@ -12635,7 +16090,7 @@
       <c r="B323" s="12">
         <v>69.97</v>
       </c>
-      <c r="C323" s="20">
+      <c r="C323" s="17">
         <v>127.8</v>
       </c>
       <c r="D323" s="12">
@@ -12665,7 +16120,7 @@
       <c r="L323" s="12">
         <v>1.92</v>
       </c>
-      <c r="M323" s="20">
+      <c r="M323" s="17">
         <v>4.4800000000000004</v>
       </c>
     </row>
@@ -12676,7 +16131,7 @@
       <c r="B324" s="12">
         <v>156.09</v>
       </c>
-      <c r="C324" s="20">
+      <c r="C324" s="17">
         <v>110.6</v>
       </c>
       <c r="D324" s="12">
@@ -12706,7 +16161,7 @@
       <c r="L324" s="12">
         <v>2.69</v>
       </c>
-      <c r="M324" s="20">
+      <c r="M324" s="17">
         <v>12.53</v>
       </c>
     </row>
@@ -12717,7 +16172,7 @@
       <c r="B325" s="12">
         <v>104.48</v>
       </c>
-      <c r="C325" s="20">
+      <c r="C325" s="17">
         <v>103.23</v>
       </c>
       <c r="D325" s="12">
@@ -12747,7 +16202,7 @@
       <c r="L325" s="12">
         <v>4.6100000000000003</v>
       </c>
-      <c r="M325" s="20">
+      <c r="M325" s="17">
         <v>10</v>
       </c>
     </row>
@@ -12758,7 +16213,7 @@
       <c r="B326" s="12">
         <v>115.99</v>
       </c>
-      <c r="C326" s="20">
+      <c r="C326" s="17">
         <v>97.49</v>
       </c>
       <c r="D326" s="12">
@@ -12788,7 +16243,7 @@
       <c r="L326" s="12">
         <v>6.08</v>
       </c>
-      <c r="M326" s="20">
+      <c r="M326" s="17">
         <v>13.63</v>
       </c>
     </row>
@@ -12799,7 +16254,7 @@
       <c r="B327" s="12">
         <v>118.29</v>
       </c>
-      <c r="C327" s="20">
+      <c r="C327" s="17">
         <v>84.94</v>
       </c>
       <c r="D327" s="12">
@@ -12829,7 +16284,7 @@
       <c r="L327" s="12">
         <v>5.82</v>
       </c>
-      <c r="M327" s="20">
+      <c r="M327" s="17">
         <v>12.88</v>
       </c>
     </row>
@@ -12840,7 +16295,7 @@
       <c r="B328" s="12">
         <v>105.08</v>
       </c>
-      <c r="C328" s="20">
+      <c r="C328" s="17">
         <v>85.94</v>
       </c>
       <c r="D328" s="12">
@@ -12870,7 +16325,7 @@
       <c r="L328" s="12">
         <v>9.2899999999999991</v>
       </c>
-      <c r="M328" s="20">
+      <c r="M328" s="17">
         <v>8.9499999999999993</v>
       </c>
     </row>
@@ -12881,7 +16336,7 @@
       <c r="B329" s="12">
         <v>81.849999999999994</v>
       </c>
-      <c r="C329" s="20">
+      <c r="C329" s="17">
         <v>83.67</v>
       </c>
       <c r="D329" s="12">
@@ -12911,7 +16366,7 @@
       <c r="L329" s="12">
         <v>10.83</v>
       </c>
-      <c r="M329" s="20">
+      <c r="M329" s="17">
         <v>6.25</v>
       </c>
     </row>
@@ -12922,7 +16377,7 @@
       <c r="B330" s="12">
         <v>67.540000000000006</v>
       </c>
-      <c r="C330" s="20">
+      <c r="C330" s="17">
         <v>73.63</v>
       </c>
       <c r="D330" s="12">
@@ -12952,7 +16407,7 @@
       <c r="L330" s="12">
         <v>5.4</v>
       </c>
-      <c r="M330" s="20">
+      <c r="M330" s="17">
         <v>4.46</v>
       </c>
     </row>
@@ -12963,7 +16418,7 @@
       <c r="B331" s="12">
         <v>74.59</v>
       </c>
-      <c r="C331" s="20">
+      <c r="C331" s="17">
         <v>88.99</v>
       </c>
       <c r="D331" s="12">
@@ -12993,7 +16448,7 @@
       <c r="L331" s="12">
         <v>2.4</v>
       </c>
-      <c r="M331" s="20">
+      <c r="M331" s="17">
         <v>4.09</v>
       </c>
     </row>
@@ -13004,7 +16459,7 @@
       <c r="B332" s="12">
         <v>59.79</v>
       </c>
-      <c r="C332" s="20">
+      <c r="C332" s="17">
         <v>81.94</v>
       </c>
       <c r="D332" s="12">
@@ -13034,7 +16489,7 @@
       <c r="L332" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="M332" s="20">
+      <c r="M332" s="17">
         <v>3.73</v>
       </c>
     </row>
@@ -13045,7 +16500,7 @@
       <c r="B333" s="12">
         <v>52.89</v>
       </c>
-      <c r="C333" s="20">
+      <c r="C333" s="17">
         <v>75.23</v>
       </c>
       <c r="D333" s="12">
@@ -13075,7 +16530,7 @@
       <c r="L333" s="12">
         <v>3.64</v>
       </c>
-      <c r="M333" s="20">
+      <c r="M333" s="17">
         <v>3.56</v>
       </c>
     </row>
@@ -13086,7 +16541,7 @@
       <c r="B334" s="12">
         <v>49.1</v>
       </c>
-      <c r="C334" s="20">
+      <c r="C334" s="17">
         <v>78.510000000000005</v>
       </c>
       <c r="D334" s="12">
@@ -13116,7 +16571,7 @@
       <c r="L334" s="12">
         <v>5.63</v>
       </c>
-      <c r="M334" s="20">
+      <c r="M334" s="17">
         <v>6.06</v>
       </c>
     </row>
@@ -13127,7 +16582,7 @@
       <c r="B335" s="12">
         <v>126.04</v>
       </c>
-      <c r="C335" s="20">
+      <c r="C335" s="17">
         <v>81.55</v>
       </c>
       <c r="D335" s="12">
@@ -13157,7 +16612,7 @@
       <c r="L335" s="12">
         <v>2.89</v>
       </c>
-      <c r="M335" s="20">
+      <c r="M335" s="17">
         <v>3.29</v>
       </c>
     </row>
@@ -13168,7 +16623,7 @@
       <c r="B336" s="12">
         <v>90.74</v>
       </c>
-      <c r="C336" s="20">
+      <c r="C336" s="17">
         <v>92.95</v>
       </c>
       <c r="D336" s="12">
@@ -13198,7 +16653,7 @@
       <c r="L336" s="12">
         <v>1.96</v>
       </c>
-      <c r="M336" s="20">
+      <c r="M336" s="17">
         <v>3.06</v>
       </c>
     </row>
@@ -13209,7 +16664,7 @@
       <c r="B337" s="12">
         <v>80.459999999999994</v>
       </c>
-      <c r="C337" s="20">
+      <c r="C337" s="17">
         <v>92.6</v>
       </c>
       <c r="D337" s="12">
@@ -13239,7 +16694,7 @@
       <c r="L337" s="12">
         <v>5.07</v>
       </c>
-      <c r="M337" s="20">
+      <c r="M337" s="17">
         <v>3.26</v>
       </c>
     </row>
@@ -13250,7 +16705,7 @@
       <c r="B338" s="12">
         <v>90.92</v>
       </c>
-      <c r="C338" s="20">
+      <c r="C338" s="17">
         <v>88.64</v>
       </c>
       <c r="D338" s="12">
@@ -13280,7 +16735,7 @@
       <c r="L338" s="12">
         <v>3.74</v>
       </c>
-      <c r="M338" s="20">
+      <c r="M338" s="17">
         <v>79.16</v>
       </c>
     </row>
@@ -13291,7 +16746,7 @@
       <c r="B339" s="12">
         <v>86.29</v>
       </c>
-      <c r="C339" s="20">
+      <c r="C339" s="17">
         <v>110.99</v>
       </c>
       <c r="D339" s="12">
@@ -13321,7 +16776,7 @@
       <c r="L339" s="12">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M339" s="20">
+      <c r="M339" s="17">
         <v>48.32</v>
       </c>
     </row>
@@ -13332,7 +16787,7 @@
       <c r="B340" s="12">
         <v>89.51</v>
       </c>
-      <c r="C340" s="20">
+      <c r="C340" s="17">
         <v>97.41</v>
       </c>
       <c r="D340" s="12">
@@ -13362,7 +16817,7 @@
       <c r="L340" s="12">
         <v>3.47</v>
       </c>
-      <c r="M340" s="20">
+      <c r="M340" s="17">
         <v>16.77</v>
       </c>
     </row>
@@ -13373,7 +16828,7 @@
       <c r="B341" s="12">
         <v>80.31</v>
       </c>
-      <c r="C341" s="20">
+      <c r="C341" s="17">
         <v>90.4</v>
       </c>
       <c r="D341" s="12">
@@ -13403,7 +16858,7 @@
       <c r="L341" s="12">
         <v>3.7</v>
       </c>
-      <c r="M341" s="20">
+      <c r="M341" s="17">
         <v>32.479999999999997</v>
       </c>
     </row>
@@ -13414,7 +16869,7 @@
       <c r="B342" s="12">
         <v>69.94</v>
       </c>
-      <c r="C342" s="20">
+      <c r="C342" s="17">
         <v>86.96</v>
       </c>
       <c r="D342" s="12">
@@ -13444,7 +16899,7 @@
       <c r="L342" s="12">
         <v>3.14</v>
       </c>
-      <c r="M342" s="20">
+      <c r="M342" s="17">
         <v>22.34</v>
       </c>
     </row>
@@ -13455,7 +16910,7 @@
       <c r="B343" s="12">
         <v>91.03</v>
       </c>
-      <c r="C343" s="20">
+      <c r="C343" s="17">
         <v>77.34</v>
       </c>
       <c r="D343" s="12">
@@ -13485,7 +16940,7 @@
       <c r="L343" s="12">
         <v>5.44</v>
       </c>
-      <c r="M343" s="20">
+      <c r="M343" s="17">
         <v>27.25</v>
       </c>
     </row>
@@ -13496,7 +16951,7 @@
       <c r="B344" s="12">
         <v>155.26</v>
       </c>
-      <c r="C344" s="20">
+      <c r="C344" s="17">
         <v>71.7</v>
       </c>
       <c r="D344" s="12">
@@ -13526,7 +16981,7 @@
       <c r="L344" s="12">
         <v>1.96</v>
       </c>
-      <c r="M344" s="20">
+      <c r="M344" s="17">
         <v>94.51</v>
       </c>
     </row>
@@ -13537,7 +16992,7 @@
       <c r="B345" s="12">
         <v>131.72</v>
       </c>
-      <c r="C345" s="20">
+      <c r="C345" s="17">
         <v>65.12</v>
       </c>
       <c r="D345" s="12">
@@ -13567,7 +17022,7 @@
       <c r="L345" s="12">
         <v>8.59</v>
       </c>
-      <c r="M345" s="20">
+      <c r="M345" s="17">
         <v>67.89</v>
       </c>
     </row>
@@ -13578,7 +17033,7 @@
       <c r="B346" s="12">
         <v>116.54</v>
       </c>
-      <c r="C346" s="20">
+      <c r="C346" s="17">
         <v>62.78</v>
       </c>
       <c r="D346" s="12">
@@ -13608,7 +17063,7 @@
       <c r="L346" s="12">
         <v>7.93</v>
       </c>
-      <c r="M346" s="20">
+      <c r="M346" s="17">
         <v>43.82</v>
       </c>
     </row>
@@ -13619,7 +17074,7 @@
       <c r="B347" s="12">
         <v>122.8</v>
       </c>
-      <c r="C347" s="20">
+      <c r="C347" s="17">
         <v>72.16</v>
       </c>
       <c r="D347" s="12">
@@ -13649,7 +17104,7 @@
       <c r="L347" s="12">
         <v>2.72</v>
       </c>
-      <c r="M347" s="20">
+      <c r="M347" s="17">
         <v>31.35</v>
       </c>
     </row>
@@ -13660,7 +17115,7 @@
       <c r="B348" s="12">
         <v>110.97</v>
       </c>
-      <c r="C348" s="20">
+      <c r="C348" s="17">
         <v>80.06</v>
       </c>
       <c r="D348" s="12">
@@ -13690,7 +17145,7 @@
       <c r="L348" s="12">
         <v>2.15</v>
       </c>
-      <c r="M348" s="20">
+      <c r="M348" s="17">
         <v>30.66</v>
       </c>
     </row>
@@ -13701,7 +17156,7 @@
       <c r="B349" s="12">
         <v>98.14</v>
       </c>
-      <c r="C349" s="20">
+      <c r="C349" s="17">
         <v>69.58</v>
       </c>
       <c r="D349" s="12">
@@ -13731,7 +17186,7 @@
       <c r="L349" s="12">
         <v>2.44</v>
       </c>
-      <c r="M349" s="20">
+      <c r="M349" s="17">
         <v>39.57</v>
       </c>
     </row>
@@ -13742,7 +17197,7 @@
       <c r="B350" s="12">
         <v>88.1</v>
       </c>
-      <c r="C350" s="20">
+      <c r="C350" s="17">
         <v>62.85</v>
       </c>
       <c r="D350" s="12">
@@ -13768,7 +17223,7 @@
       <c r="L350" s="12">
         <v>3.63</v>
       </c>
-      <c r="M350" s="20">
+      <c r="M350" s="17">
         <v>49.59</v>
       </c>
     </row>
@@ -13779,7 +17234,7 @@
       <c r="B351" s="12">
         <v>77.680000000000007</v>
       </c>
-      <c r="C351" s="20">
+      <c r="C351" s="17">
         <v>58.55</v>
       </c>
       <c r="D351" s="11"/>
@@ -13795,7 +17250,7 @@
       <c r="L351" s="12">
         <v>7.15</v>
       </c>
-      <c r="M351" s="20">
+      <c r="M351" s="17">
         <v>48.92</v>
       </c>
     </row>
@@ -13818,22 +17273,58 @@
       <c r="L352" s="12">
         <v>12.98</v>
       </c>
-      <c r="M352" s="21"/>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M352" s="18"/>
+    </row>
+    <row r="353" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="15"/>
-      <c r="B353" s="16"/>
-      <c r="C353" s="17"/>
-      <c r="D353" s="18"/>
-      <c r="E353" s="18"/>
-      <c r="F353" s="18"/>
-      <c r="G353" s="18"/>
-      <c r="H353" s="18"/>
-      <c r="I353" s="18"/>
-      <c r="J353" s="18"/>
-      <c r="K353" s="18"/>
-      <c r="L353" s="16"/>
-      <c r="M353" s="17"/>
+      <c r="B353" s="33">
+        <f>AVERAGE(B321:B352)</f>
+        <v>94.426562499999974</v>
+      </c>
+      <c r="C353" s="33">
+        <f t="shared" ref="C353" si="94">AVERAGE(C321:C352)</f>
+        <v>92.61</v>
+      </c>
+      <c r="D353" s="33">
+        <f t="shared" ref="D353" si="95">AVERAGE(D321:D352)</f>
+        <v>55.655666666666654</v>
+      </c>
+      <c r="E353" s="33">
+        <f t="shared" ref="E353" si="96">AVERAGE(E321:E352)</f>
+        <v>15.020666666666669</v>
+      </c>
+      <c r="F353" s="33">
+        <f t="shared" ref="F353" si="97">AVERAGE(F321:F352)</f>
+        <v>8.6782758620689648</v>
+      </c>
+      <c r="G353" s="33">
+        <f t="shared" ref="G353" si="98">AVERAGE(G321:G352)</f>
+        <v>7.2203333333333335</v>
+      </c>
+      <c r="H353" s="33">
+        <f t="shared" ref="H353" si="99">AVERAGE(H321:H352)</f>
+        <v>6.559310344827586</v>
+      </c>
+      <c r="I353" s="33">
+        <f t="shared" ref="I353" si="100">AVERAGE(I321:I352)</f>
+        <v>4.4633333333333329</v>
+      </c>
+      <c r="J353" s="33">
+        <f t="shared" ref="J353" si="101">AVERAGE(J321:J352)</f>
+        <v>4.214999999999999</v>
+      </c>
+      <c r="K353" s="33">
+        <f t="shared" ref="K353" si="102">AVERAGE(K321:K352)</f>
+        <v>2.9296774193548392</v>
+      </c>
+      <c r="L353" s="33">
+        <f t="shared" ref="L353" si="103">AVERAGE(L321:L352)</f>
+        <v>4.4899999999999993</v>
+      </c>
+      <c r="M353" s="33">
+        <f t="shared" ref="M353" si="104">AVERAGE(M321:M352)</f>
+        <v>24.204838709677421</v>
+      </c>
     </row>
     <row r="354" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
@@ -13888,43 +17379,43 @@
       <c r="A356" s="1">
         <v>1</v>
       </c>
-      <c r="B356" s="22">
+      <c r="B356" s="19">
         <v>46.08</v>
       </c>
-      <c r="C356" s="21">
+      <c r="C356" s="18">
         <v>40.98</v>
       </c>
-      <c r="D356" s="21">
+      <c r="D356" s="18">
         <v>33.39</v>
       </c>
-      <c r="E356" s="21">
+      <c r="E356" s="18">
         <v>20.716999999999999</v>
       </c>
       <c r="F356" s="12">
         <v>8.93</v>
       </c>
-      <c r="G356" s="26">
+      <c r="G356" s="23">
         <v>7.165</v>
       </c>
-      <c r="H356" s="21">
+      <c r="H356" s="18">
         <v>5.6360000000000001</v>
       </c>
-      <c r="I356" s="21">
+      <c r="I356" s="18">
         <v>5.19</v>
       </c>
-      <c r="J356" s="21">
+      <c r="J356" s="18">
         <v>4.2699999999999996</v>
       </c>
-      <c r="K356" s="21">
+      <c r="K356" s="18">
         <v>2.6640000000000001</v>
       </c>
       <c r="L356" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M356" s="22">
+      <c r="M356" s="19">
         <v>1.373</v>
       </c>
-      <c r="N356" s="32">
+      <c r="N356" s="29">
         <f>AVERAGE(B356:M387)</f>
         <v>15.968175637393772</v>
       </c>
@@ -13933,7 +17424,7 @@
       <c r="A357" s="1">
         <v>2</v>
       </c>
-      <c r="B357" s="20">
+      <c r="B357" s="17">
         <v>75.58</v>
       </c>
       <c r="C357" s="12">
@@ -13948,7 +17439,7 @@
       <c r="F357" s="12">
         <v>8.93</v>
       </c>
-      <c r="G357" s="23">
+      <c r="G357" s="20">
         <v>7.0209999999999999</v>
       </c>
       <c r="H357" s="12">
@@ -13966,7 +17457,7 @@
       <c r="L357" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M357" s="20">
+      <c r="M357" s="17">
         <v>1.2949999999999999</v>
       </c>
     </row>
@@ -13974,7 +17465,7 @@
       <c r="A358" s="1">
         <v>3</v>
       </c>
-      <c r="B358" s="20">
+      <c r="B358" s="17">
         <v>92.02</v>
       </c>
       <c r="C358" s="12">
@@ -13989,7 +17480,7 @@
       <c r="F358" s="12">
         <v>8.8610000000000007</v>
       </c>
-      <c r="G358" s="24">
+      <c r="G358" s="21">
         <v>6.9409999999999998</v>
       </c>
       <c r="H358" s="12">
@@ -14007,7 +17498,7 @@
       <c r="L358" s="12">
         <v>0.93100000000000005</v>
       </c>
-      <c r="M358" s="20">
+      <c r="M358" s="17">
         <v>0.97</v>
       </c>
     </row>
@@ -14015,7 +17506,7 @@
       <c r="A359" s="1">
         <v>4</v>
       </c>
-      <c r="B359" s="20">
+      <c r="B359" s="17">
         <v>80.2</v>
       </c>
       <c r="C359" s="12">
@@ -14048,7 +17539,7 @@
       <c r="L359" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M359" s="20">
+      <c r="M359" s="17">
         <v>0.84899999999999998</v>
       </c>
     </row>
@@ -14056,7 +17547,7 @@
       <c r="A360" s="1">
         <v>5</v>
       </c>
-      <c r="B360" s="20">
+      <c r="B360" s="17">
         <v>57.01</v>
       </c>
       <c r="C360" s="12">
@@ -14089,7 +17580,7 @@
       <c r="L360" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M360" s="20">
+      <c r="M360" s="17">
         <v>1.08</v>
       </c>
     </row>
@@ -14097,7 +17588,7 @@
       <c r="A361" s="1">
         <v>6</v>
       </c>
-      <c r="B361" s="20">
+      <c r="B361" s="17">
         <v>55.83</v>
       </c>
       <c r="C361" s="12">
@@ -14130,7 +17621,7 @@
       <c r="L361" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M361" s="20">
+      <c r="M361" s="17">
         <v>9.9740000000000002</v>
       </c>
     </row>
@@ -14138,7 +17629,7 @@
       <c r="A362" s="1">
         <v>7</v>
       </c>
-      <c r="B362" s="20">
+      <c r="B362" s="17">
         <v>54.28</v>
       </c>
       <c r="C362" s="12">
@@ -14171,7 +17662,7 @@
       <c r="L362" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M362" s="20">
+      <c r="M362" s="17">
         <v>7.3840000000000003</v>
       </c>
     </row>
@@ -14179,7 +17670,7 @@
       <c r="A363" s="1">
         <v>8</v>
       </c>
-      <c r="B363" s="20">
+      <c r="B363" s="17">
         <v>44.23</v>
       </c>
       <c r="C363" s="12">
@@ -14212,7 +17703,7 @@
       <c r="L363" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M363" s="20">
+      <c r="M363" s="17">
         <v>17.164000000000001</v>
       </c>
     </row>
@@ -14220,7 +17711,7 @@
       <c r="A364" s="1">
         <v>9</v>
       </c>
-      <c r="B364" s="20">
+      <c r="B364" s="17">
         <v>47.45</v>
       </c>
       <c r="C364" s="12">
@@ -14253,7 +17744,7 @@
       <c r="L364" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M364" s="20">
+      <c r="M364" s="17">
         <v>17.010000000000002</v>
       </c>
     </row>
@@ -14261,7 +17752,7 @@
       <c r="A365" s="1">
         <v>10</v>
       </c>
-      <c r="B365" s="20">
+      <c r="B365" s="17">
         <v>56.51</v>
       </c>
       <c r="C365" s="12">
@@ -14294,7 +17785,7 @@
       <c r="L365" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M365" s="20">
+      <c r="M365" s="17">
         <v>7.25</v>
       </c>
     </row>
@@ -14302,7 +17793,7 @@
       <c r="A366" s="1">
         <v>11</v>
       </c>
-      <c r="B366" s="20">
+      <c r="B366" s="17">
         <v>49.46</v>
       </c>
       <c r="C366" s="12">
@@ -14335,7 +17826,7 @@
       <c r="L366" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M366" s="20">
+      <c r="M366" s="17">
         <v>4.75</v>
       </c>
     </row>
@@ -14343,7 +17834,7 @@
       <c r="A367" s="1">
         <v>12</v>
       </c>
-      <c r="B367" s="20">
+      <c r="B367" s="17">
         <v>64.41</v>
       </c>
       <c r="C367" s="12">
@@ -14376,7 +17867,7 @@
       <c r="L367" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M367" s="20">
+      <c r="M367" s="17">
         <v>15.42</v>
       </c>
     </row>
@@ -14384,7 +17875,7 @@
       <c r="A368" s="1">
         <v>13</v>
       </c>
-      <c r="B368" s="20">
+      <c r="B368" s="17">
         <v>70.31</v>
       </c>
       <c r="C368" s="12">
@@ -14417,7 +17908,7 @@
       <c r="L368" s="12">
         <v>0.58799999999999997</v>
       </c>
-      <c r="M368" s="20">
+      <c r="M368" s="17">
         <v>34.61</v>
       </c>
     </row>
@@ -14425,7 +17916,7 @@
       <c r="A369" s="1">
         <v>14</v>
       </c>
-      <c r="B369" s="20">
+      <c r="B369" s="17">
         <v>63.82</v>
       </c>
       <c r="C369" s="12">
@@ -14458,7 +17949,7 @@
       <c r="L369" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M369" s="20">
+      <c r="M369" s="17">
         <v>64.257999999999996</v>
       </c>
     </row>
@@ -14466,7 +17957,7 @@
       <c r="A370" s="1">
         <v>15</v>
       </c>
-      <c r="B370" s="20">
+      <c r="B370" s="17">
         <v>56.07</v>
       </c>
       <c r="C370" s="12">
@@ -14499,7 +17990,7 @@
       <c r="L370" s="12">
         <v>0.68799999999999994</v>
       </c>
-      <c r="M370" s="20">
+      <c r="M370" s="17">
         <v>17.027999999999999</v>
       </c>
     </row>
@@ -14507,7 +17998,7 @@
       <c r="A371" s="1">
         <v>16</v>
       </c>
-      <c r="B371" s="20">
+      <c r="B371" s="17">
         <v>49.61</v>
       </c>
       <c r="C371" s="12">
@@ -14540,7 +18031,7 @@
       <c r="L371" s="12">
         <v>1.069</v>
       </c>
-      <c r="M371" s="20">
+      <c r="M371" s="17">
         <v>18.268000000000001</v>
       </c>
     </row>
@@ -14548,7 +18039,7 @@
       <c r="A372" s="1">
         <v>17</v>
       </c>
-      <c r="B372" s="20">
+      <c r="B372" s="17">
         <v>47.83</v>
       </c>
       <c r="C372" s="12">
@@ -14581,7 +18072,7 @@
       <c r="L372" s="12">
         <v>1.4039999999999999</v>
       </c>
-      <c r="M372" s="20">
+      <c r="M372" s="17">
         <v>11.029</v>
       </c>
     </row>
@@ -14589,7 +18080,7 @@
       <c r="A373" s="1">
         <v>18</v>
       </c>
-      <c r="B373" s="20">
+      <c r="B373" s="17">
         <v>46.01</v>
       </c>
       <c r="C373" s="12">
@@ -14622,7 +18113,7 @@
       <c r="L373" s="12">
         <v>1.117</v>
       </c>
-      <c r="M373" s="20">
+      <c r="M373" s="17">
         <v>14.279</v>
       </c>
     </row>
@@ -14630,7 +18121,7 @@
       <c r="A374" s="1">
         <v>19</v>
       </c>
-      <c r="B374" s="20">
+      <c r="B374" s="17">
         <v>44.25</v>
       </c>
       <c r="C374" s="12">
@@ -14663,7 +18154,7 @@
       <c r="L374" s="12">
         <v>1.085</v>
       </c>
-      <c r="M374" s="20">
+      <c r="M374" s="17">
         <v>11.26</v>
       </c>
     </row>
@@ -14671,7 +18162,7 @@
       <c r="A375" s="1">
         <v>20</v>
       </c>
-      <c r="B375" s="20">
+      <c r="B375" s="17">
         <v>47.667999999999999</v>
       </c>
       <c r="C375" s="12">
@@ -14704,7 +18195,7 @@
       <c r="L375" s="12">
         <v>1.024</v>
       </c>
-      <c r="M375" s="20">
+      <c r="M375" s="17">
         <v>12.273999999999999</v>
       </c>
     </row>
@@ -14712,7 +18203,7 @@
       <c r="A376" s="1">
         <v>21</v>
       </c>
-      <c r="B376" s="20">
+      <c r="B376" s="17">
         <v>42.24</v>
       </c>
       <c r="C376" s="12">
@@ -14745,7 +18236,7 @@
       <c r="L376" s="12">
         <v>2.33</v>
       </c>
-      <c r="M376" s="20">
+      <c r="M376" s="17">
         <v>11.419</v>
       </c>
     </row>
@@ -14753,7 +18244,7 @@
       <c r="A377" s="1">
         <v>22</v>
       </c>
-      <c r="B377" s="20">
+      <c r="B377" s="17">
         <v>40.92</v>
       </c>
       <c r="C377" s="12">
@@ -14786,7 +18277,7 @@
       <c r="L377" s="12">
         <v>3.2959999999999998</v>
       </c>
-      <c r="M377" s="20">
+      <c r="M377" s="17">
         <v>19.486999999999998</v>
       </c>
     </row>
@@ -14794,7 +18285,7 @@
       <c r="A378" s="1">
         <v>23</v>
       </c>
-      <c r="B378" s="20">
+      <c r="B378" s="17">
         <v>38.314</v>
       </c>
       <c r="C378" s="12">
@@ -14827,7 +18318,7 @@
       <c r="L378" s="12">
         <v>2.82</v>
       </c>
-      <c r="M378" s="20">
+      <c r="M378" s="17">
         <v>13.484</v>
       </c>
     </row>
@@ -14835,7 +18326,7 @@
       <c r="A379" s="1">
         <v>24</v>
       </c>
-      <c r="B379" s="20">
+      <c r="B379" s="17">
         <v>39.76</v>
       </c>
       <c r="C379" s="12">
@@ -14868,7 +18359,7 @@
       <c r="L379" s="12">
         <v>2.5859999999999999</v>
       </c>
-      <c r="M379" s="20">
+      <c r="M379" s="17">
         <v>10.77</v>
       </c>
     </row>
@@ -14876,7 +18367,7 @@
       <c r="A380" s="1">
         <v>25</v>
       </c>
-      <c r="B380" s="20">
+      <c r="B380" s="17">
         <v>39.979999999999997</v>
       </c>
       <c r="C380" s="12">
@@ -14909,7 +18400,7 @@
       <c r="L380" s="12">
         <v>3.7770000000000001</v>
       </c>
-      <c r="M380" s="20">
+      <c r="M380" s="17">
         <v>26.181000000000001</v>
       </c>
     </row>
@@ -14917,7 +18408,7 @@
       <c r="A381" s="1">
         <v>26</v>
       </c>
-      <c r="B381" s="20">
+      <c r="B381" s="17">
         <v>41.51</v>
       </c>
       <c r="C381" s="12">
@@ -14950,7 +18441,7 @@
       <c r="L381" s="12">
         <v>4.085</v>
       </c>
-      <c r="M381" s="20">
+      <c r="M381" s="17">
         <v>33.405999999999999</v>
       </c>
     </row>
@@ -14958,7 +18449,7 @@
       <c r="A382" s="1">
         <v>27</v>
       </c>
-      <c r="B382" s="20">
+      <c r="B382" s="17">
         <v>39.195999999999998</v>
       </c>
       <c r="C382" s="12">
@@ -14991,7 +18482,7 @@
       <c r="L382" s="12">
         <v>2.2330000000000001</v>
       </c>
-      <c r="M382" s="20">
+      <c r="M382" s="17">
         <v>28.858000000000001</v>
       </c>
     </row>
@@ -14999,7 +18490,7 @@
       <c r="A383" s="1">
         <v>28</v>
       </c>
-      <c r="B383" s="20">
+      <c r="B383" s="17">
         <v>42.16</v>
       </c>
       <c r="C383" s="12">
@@ -15032,7 +18523,7 @@
       <c r="L383" s="12">
         <v>1.7669999999999999</v>
       </c>
-      <c r="M383" s="20">
+      <c r="M383" s="17">
         <v>38.685000000000002</v>
       </c>
     </row>
@@ -15040,7 +18531,7 @@
       <c r="A384" s="1">
         <v>29</v>
       </c>
-      <c r="B384" s="20">
+      <c r="B384" s="17">
         <v>36.770000000000003</v>
       </c>
       <c r="C384" s="12">
@@ -15073,7 +18564,7 @@
       <c r="L384" s="12">
         <v>1.2589999999999999</v>
       </c>
-      <c r="M384" s="20">
+      <c r="M384" s="17">
         <v>42.079000000000001</v>
       </c>
     </row>
@@ -15081,7 +18572,7 @@
       <c r="A385" s="1">
         <v>30</v>
       </c>
-      <c r="B385" s="20">
+      <c r="B385" s="17">
         <v>36.674999999999997</v>
       </c>
       <c r="C385" s="12">
@@ -15110,7 +18601,7 @@
       <c r="L385" s="12">
         <v>1.345</v>
       </c>
-      <c r="M385" s="20">
+      <c r="M385" s="17">
         <v>79.191999999999993</v>
       </c>
     </row>
@@ -15118,7 +18609,7 @@
       <c r="A386" s="1">
         <v>31</v>
       </c>
-      <c r="B386" s="20">
+      <c r="B386" s="17">
         <v>34.74</v>
       </c>
       <c r="C386" s="12">
@@ -15130,7 +18621,7 @@
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
-      <c r="J386" s="25">
+      <c r="J386" s="22">
         <v>2.78</v>
       </c>
       <c r="K386" s="12">
@@ -15139,7 +18630,7 @@
       <c r="L386" s="12">
         <v>1.333</v>
       </c>
-      <c r="M386" s="20">
+      <c r="M386" s="17">
         <v>48.091000000000001</v>
       </c>
     </row>
@@ -15147,7 +18638,7 @@
       <c r="A387" s="1">
         <v>32</v>
       </c>
-      <c r="B387" s="20">
+      <c r="B387" s="17">
         <v>37.204000000000001</v>
       </c>
       <c r="C387" s="12"/>
@@ -15158,24 +18649,60 @@
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
       <c r="J387" s="5"/>
-      <c r="K387" s="27"/>
+      <c r="K387" s="24"/>
       <c r="L387" s="12"/>
-      <c r="M387" s="21"/>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M387" s="18"/>
+    </row>
+    <row r="388" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="15"/>
-      <c r="B388" s="16"/>
-      <c r="C388" s="17"/>
-      <c r="D388" s="18"/>
-      <c r="E388" s="18"/>
-      <c r="F388" s="18"/>
-      <c r="G388" s="18"/>
-      <c r="H388" s="18"/>
-      <c r="I388" s="18"/>
-      <c r="J388" s="18"/>
-      <c r="K388" s="18"/>
-      <c r="L388" s="16"/>
-      <c r="M388" s="17"/>
+      <c r="B388" s="33">
+        <f>AVERAGE(B356:B387)</f>
+        <v>50.565531250000006</v>
+      </c>
+      <c r="C388" s="33">
+        <f t="shared" ref="C388" si="105">AVERAGE(C356:C387)</f>
+        <v>34.16538709677419</v>
+      </c>
+      <c r="D388" s="33">
+        <f t="shared" ref="D388" si="106">AVERAGE(D356:D387)</f>
+        <v>31.649466666666676</v>
+      </c>
+      <c r="E388" s="33">
+        <f t="shared" ref="E388" si="107">AVERAGE(E356:E387)</f>
+        <v>14.043366666666666</v>
+      </c>
+      <c r="F388" s="33">
+        <f t="shared" ref="F388" si="108">AVERAGE(F356:F387)</f>
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="G388" s="33">
+        <f t="shared" ref="G388" si="109">AVERAGE(G356:G387)</f>
+        <v>6.3729655172413802</v>
+      </c>
+      <c r="H388" s="33">
+        <f t="shared" ref="H388" si="110">AVERAGE(H356:H387)</f>
+        <v>6.1764137931034488</v>
+      </c>
+      <c r="I388" s="33">
+        <f t="shared" ref="I388" si="111">AVERAGE(I356:I387)</f>
+        <v>4.6343333333333332</v>
+      </c>
+      <c r="J388" s="33">
+        <f t="shared" ref="J388" si="112">AVERAGE(J356:J387)</f>
+        <v>3.6935483870967736</v>
+      </c>
+      <c r="K388" s="33">
+        <f t="shared" ref="K388" si="113">AVERAGE(K356:K387)</f>
+        <v>2.4313225806451615</v>
+      </c>
+      <c r="L388" s="33">
+        <f t="shared" ref="L388" si="114">AVERAGE(L356:L387)</f>
+        <v>1.8282631578947366</v>
+      </c>
+      <c r="M388" s="33">
+        <f t="shared" ref="M388" si="115">AVERAGE(M356:M387)</f>
+        <v>19.973451612903222</v>
+      </c>
     </row>
     <row r="389" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
@@ -15230,43 +18757,43 @@
       <c r="A391" s="1">
         <v>1</v>
       </c>
-      <c r="B391" s="22">
+      <c r="B391" s="19">
         <v>44.966999999999999</v>
       </c>
-      <c r="C391" s="21">
+      <c r="C391" s="18">
         <v>71.849999999999994</v>
       </c>
-      <c r="D391" s="29">
+      <c r="D391" s="26">
         <v>46.66</v>
       </c>
-      <c r="E391" s="21">
+      <c r="E391" s="18">
         <v>20.358000000000001</v>
       </c>
-      <c r="F391" s="21">
+      <c r="F391" s="18">
         <v>11.471</v>
       </c>
-      <c r="G391" s="21">
+      <c r="G391" s="18">
         <v>7.3819999999999997</v>
       </c>
-      <c r="H391" s="21">
+      <c r="H391" s="18">
         <v>5.6</v>
       </c>
-      <c r="I391" s="21">
+      <c r="I391" s="18">
         <v>4.62</v>
       </c>
-      <c r="J391" s="21">
+      <c r="J391" s="18">
         <v>5.173</v>
       </c>
-      <c r="K391" s="21">
+      <c r="K391" s="18">
         <v>2.75</v>
       </c>
-      <c r="L391" s="21">
+      <c r="L391" s="18">
         <v>3.09</v>
       </c>
-      <c r="M391" s="21">
+      <c r="M391" s="18">
         <v>5.29</v>
       </c>
-      <c r="N391" s="32">
+      <c r="N391" s="29">
         <f>AVERAGE(B391:M422)</f>
         <v>23.246828961748623</v>
       </c>
@@ -15275,13 +18802,13 @@
       <c r="A392" s="1">
         <v>2</v>
       </c>
-      <c r="B392" s="20">
+      <c r="B392" s="17">
         <v>87.186000000000007</v>
       </c>
       <c r="C392" s="12">
         <v>74.95</v>
       </c>
-      <c r="D392" s="28">
+      <c r="D392" s="25">
         <v>42.789000000000001</v>
       </c>
       <c r="E392" s="12">
@@ -15316,13 +18843,13 @@
       <c r="A393" s="1">
         <v>3</v>
       </c>
-      <c r="B393" s="20">
+      <c r="B393" s="17">
         <v>87.912999999999997</v>
       </c>
       <c r="C393" s="12">
         <v>107.25</v>
       </c>
-      <c r="D393" s="28">
+      <c r="D393" s="25">
         <v>40.343000000000004</v>
       </c>
       <c r="E393" s="12">
@@ -15357,13 +18884,13 @@
       <c r="A394" s="1">
         <v>4</v>
       </c>
-      <c r="B394" s="20">
+      <c r="B394" s="17">
         <v>56.287999999999997</v>
       </c>
       <c r="C394" s="12">
         <v>105.57</v>
       </c>
-      <c r="D394" s="28">
+      <c r="D394" s="25">
         <v>37</v>
       </c>
       <c r="E394" s="12">
@@ -15398,13 +18925,13 @@
       <c r="A395" s="1">
         <v>5</v>
       </c>
-      <c r="B395" s="20">
+      <c r="B395" s="17">
         <v>74.102999999999994</v>
       </c>
       <c r="C395" s="12">
         <v>108.94</v>
       </c>
-      <c r="D395" s="28">
+      <c r="D395" s="25">
         <v>58.459000000000003</v>
       </c>
       <c r="E395" s="12">
@@ -15439,13 +18966,13 @@
       <c r="A396" s="1">
         <v>6</v>
       </c>
-      <c r="B396" s="20">
+      <c r="B396" s="17">
         <v>80.319999999999993</v>
       </c>
       <c r="C396" s="12">
         <v>112.09</v>
       </c>
-      <c r="D396" s="28">
+      <c r="D396" s="25">
         <v>47.508000000000003</v>
       </c>
       <c r="E396" s="12">
@@ -15480,13 +19007,13 @@
       <c r="A397" s="1">
         <v>7</v>
       </c>
-      <c r="B397" s="20">
+      <c r="B397" s="17">
         <v>74.528999999999996</v>
       </c>
       <c r="C397" s="12">
         <v>111.7</v>
       </c>
-      <c r="D397" s="28">
+      <c r="D397" s="25">
         <v>46.052</v>
       </c>
       <c r="E397" s="12">
@@ -15521,13 +19048,13 @@
       <c r="A398" s="1">
         <v>8</v>
       </c>
-      <c r="B398" s="20">
+      <c r="B398" s="17">
         <v>63.741999999999997</v>
       </c>
       <c r="C398" s="12">
         <v>107.54</v>
       </c>
-      <c r="D398" s="28">
+      <c r="D398" s="25">
         <v>40.786999999999999</v>
       </c>
       <c r="E398" s="12">
@@ -15562,13 +19089,13 @@
       <c r="A399" s="1">
         <v>9</v>
       </c>
-      <c r="B399" s="20">
+      <c r="B399" s="17">
         <v>58.43</v>
       </c>
       <c r="C399" s="12">
         <v>117.56</v>
       </c>
-      <c r="D399" s="28">
+      <c r="D399" s="25">
         <v>40.115000000000002</v>
       </c>
       <c r="E399" s="12">
@@ -15603,13 +19130,13 @@
       <c r="A400" s="1">
         <v>10</v>
       </c>
-      <c r="B400" s="20">
+      <c r="B400" s="17">
         <v>64.33</v>
       </c>
       <c r="C400" s="12">
         <v>104.06</v>
       </c>
-      <c r="D400" s="28">
+      <c r="D400" s="25">
         <v>37.991</v>
       </c>
       <c r="E400" s="12">
@@ -15644,13 +19171,13 @@
       <c r="A401" s="1">
         <v>11</v>
       </c>
-      <c r="B401" s="20">
+      <c r="B401" s="17">
         <v>69.587999999999994</v>
       </c>
       <c r="C401" s="12">
         <v>93.16</v>
       </c>
-      <c r="D401" s="28">
+      <c r="D401" s="25">
         <v>35.942</v>
       </c>
       <c r="E401" s="12">
@@ -15685,13 +19212,13 @@
       <c r="A402" s="1">
         <v>12</v>
       </c>
-      <c r="B402" s="20">
+      <c r="B402" s="17">
         <v>59.561999999999998</v>
       </c>
       <c r="C402" s="12">
         <v>82.69</v>
       </c>
-      <c r="D402" s="28">
+      <c r="D402" s="25">
         <v>34.823</v>
       </c>
       <c r="E402" s="12">
@@ -15726,13 +19253,13 @@
       <c r="A403" s="1">
         <v>13</v>
       </c>
-      <c r="B403" s="20">
+      <c r="B403" s="17">
         <v>50.719000000000001</v>
       </c>
       <c r="C403" s="12">
         <v>75.5</v>
       </c>
-      <c r="D403" s="28">
+      <c r="D403" s="25">
         <v>33.44</v>
       </c>
       <c r="E403" s="12">
@@ -15767,7 +19294,7 @@
       <c r="A404" s="1">
         <v>14</v>
       </c>
-      <c r="B404" s="20">
+      <c r="B404" s="17">
         <v>48.436</v>
       </c>
       <c r="C404" s="12">
@@ -15808,7 +19335,7 @@
       <c r="A405" s="1">
         <v>15</v>
       </c>
-      <c r="B405" s="20">
+      <c r="B405" s="17">
         <v>49.533999999999999</v>
       </c>
       <c r="C405" s="12">
@@ -15849,7 +19376,7 @@
       <c r="A406" s="1">
         <v>16</v>
       </c>
-      <c r="B406" s="20">
+      <c r="B406" s="17">
         <v>41.85</v>
       </c>
       <c r="C406" s="12">
@@ -15890,7 +19417,7 @@
       <c r="A407" s="1">
         <v>17</v>
       </c>
-      <c r="B407" s="20">
+      <c r="B407" s="17">
         <v>51.097000000000001</v>
       </c>
       <c r="C407" s="12">
@@ -15931,7 +19458,7 @@
       <c r="A408" s="1">
         <v>18</v>
       </c>
-      <c r="B408" s="20">
+      <c r="B408" s="17">
         <v>39.69</v>
       </c>
       <c r="C408" s="12">
@@ -15972,7 +19499,7 @@
       <c r="A409" s="1">
         <v>19</v>
       </c>
-      <c r="B409" s="20">
+      <c r="B409" s="17">
         <v>40.959000000000003</v>
       </c>
       <c r="C409" s="12">
@@ -16013,7 +19540,7 @@
       <c r="A410" s="1">
         <v>20</v>
       </c>
-      <c r="B410" s="20">
+      <c r="B410" s="17">
         <v>39.987000000000002</v>
       </c>
       <c r="C410" s="12">
@@ -16054,7 +19581,7 @@
       <c r="A411" s="1">
         <v>21</v>
       </c>
-      <c r="B411" s="20">
+      <c r="B411" s="17">
         <v>41.3</v>
       </c>
       <c r="C411" s="12">
@@ -16095,7 +19622,7 @@
       <c r="A412" s="1">
         <v>22</v>
       </c>
-      <c r="B412" s="20">
+      <c r="B412" s="17">
         <v>60.951999999999998</v>
       </c>
       <c r="C412" s="12">
@@ -16136,7 +19663,7 @@
       <c r="A413" s="1">
         <v>23</v>
       </c>
-      <c r="B413" s="20">
+      <c r="B413" s="17">
         <v>82.042000000000002</v>
       </c>
       <c r="C413" s="12">
@@ -16177,7 +19704,7 @@
       <c r="A414" s="1">
         <v>24</v>
       </c>
-      <c r="B414" s="20">
+      <c r="B414" s="17">
         <v>64.778999999999996</v>
       </c>
       <c r="C414" s="12">
@@ -16218,7 +19745,7 @@
       <c r="A415" s="1">
         <v>25</v>
       </c>
-      <c r="B415" s="20">
+      <c r="B415" s="17">
         <v>56.369</v>
       </c>
       <c r="C415" s="12">
@@ -16259,7 +19786,7 @@
       <c r="A416" s="1">
         <v>26</v>
       </c>
-      <c r="B416" s="20">
+      <c r="B416" s="17">
         <v>50.77</v>
       </c>
       <c r="C416" s="12">
@@ -16300,7 +19827,7 @@
       <c r="A417" s="1">
         <v>27</v>
       </c>
-      <c r="B417" s="20">
+      <c r="B417" s="17">
         <v>51.366999999999997</v>
       </c>
       <c r="C417" s="12">
@@ -16341,7 +19868,7 @@
       <c r="A418" s="1">
         <v>28</v>
       </c>
-      <c r="B418" s="20">
+      <c r="B418" s="17">
         <v>80.64</v>
       </c>
       <c r="C418" s="12">
@@ -16382,7 +19909,7 @@
       <c r="A419" s="1">
         <v>29</v>
       </c>
-      <c r="B419" s="20">
+      <c r="B419" s="17">
         <v>63.64</v>
       </c>
       <c r="C419" s="12">
@@ -16423,7 +19950,7 @@
       <c r="A420" s="1">
         <v>30</v>
       </c>
-      <c r="B420" s="20">
+      <c r="B420" s="17">
         <v>65.090999999999994</v>
       </c>
       <c r="C420" s="12">
@@ -16433,7 +19960,7 @@
         <v>22.424700000000001</v>
       </c>
       <c r="E420" s="12"/>
-      <c r="F420" s="25">
+      <c r="F420" s="22">
         <v>7.3819999999999997</v>
       </c>
       <c r="G420" s="12"/>
@@ -16458,7 +19985,7 @@
       <c r="A421" s="1">
         <v>31</v>
       </c>
-      <c r="B421" s="20">
+      <c r="B421" s="17">
         <v>99.03</v>
       </c>
       <c r="C421" s="12">
@@ -16472,7 +19999,7 @@
       <c r="G421" s="5"/>
       <c r="H421" s="5"/>
       <c r="I421" s="5"/>
-      <c r="J421" s="25">
+      <c r="J421" s="22">
         <v>2.83</v>
       </c>
       <c r="K421" s="12">
@@ -16489,11 +20016,11 @@
       <c r="A422" s="1">
         <v>32</v>
       </c>
-      <c r="B422" s="20">
+      <c r="B422" s="17">
         <v>76.48</v>
       </c>
-      <c r="C422" s="21"/>
-      <c r="D422" s="27"/>
+      <c r="C422" s="18"/>
+      <c r="D422" s="24"/>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
       <c r="G422" s="5"/>
@@ -16506,20 +20033,56 @@
         <v>80.385000000000005</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="15"/>
-      <c r="B423" s="16"/>
-      <c r="C423" s="17"/>
-      <c r="D423" s="18"/>
-      <c r="E423" s="18"/>
-      <c r="F423" s="18"/>
-      <c r="G423" s="18"/>
-      <c r="H423" s="18"/>
-      <c r="I423" s="18"/>
-      <c r="J423" s="18"/>
-      <c r="K423" s="18"/>
-      <c r="L423" s="16"/>
-      <c r="M423" s="17"/>
+      <c r="B423" s="33">
+        <f>AVERAGE(B391:B422)</f>
+        <v>61.740312500000002</v>
+      </c>
+      <c r="C423" s="33">
+        <f t="shared" ref="C423" si="116">AVERAGE(C391:C422)</f>
+        <v>83.78400000000002</v>
+      </c>
+      <c r="D423" s="33">
+        <f t="shared" ref="D423" si="117">AVERAGE(D391:D422)</f>
+        <v>33.343829032258064</v>
+      </c>
+      <c r="E423" s="33">
+        <f t="shared" ref="E423" si="118">AVERAGE(E391:E422)</f>
+        <v>17.109793103448276</v>
+      </c>
+      <c r="F423" s="33">
+        <f t="shared" ref="F423" si="119">AVERAGE(F391:F422)</f>
+        <v>9.2541666666666647</v>
+      </c>
+      <c r="G423" s="33">
+        <f t="shared" ref="G423" si="120">AVERAGE(G391:G422)</f>
+        <v>6.3752758620689649</v>
+      </c>
+      <c r="H423" s="33">
+        <f t="shared" ref="H423" si="121">AVERAGE(H391:H422)</f>
+        <v>4.9698666666666664</v>
+      </c>
+      <c r="I423" s="33">
+        <f t="shared" ref="I423" si="122">AVERAGE(I391:I422)</f>
+        <v>4.1592413793103447</v>
+      </c>
+      <c r="J423" s="33">
+        <f t="shared" ref="J423" si="123">AVERAGE(J391:J422)</f>
+        <v>3.7062580645161294</v>
+      </c>
+      <c r="K423" s="33">
+        <f t="shared" ref="K423" si="124">AVERAGE(K391:K422)</f>
+        <v>4.6788387096774189</v>
+      </c>
+      <c r="L423" s="33">
+        <f t="shared" ref="L423" si="125">AVERAGE(L391:L422)</f>
+        <v>11.041129032258064</v>
+      </c>
+      <c r="M423" s="33">
+        <f t="shared" ref="M423" si="126">AVERAGE(M391:M422)</f>
+        <v>33.470865625000002</v>
+      </c>
     </row>
     <row r="424" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
@@ -16574,43 +20137,43 @@
       <c r="A426" s="1">
         <v>1</v>
       </c>
-      <c r="B426" s="21">
+      <c r="B426" s="18">
         <v>63.98</v>
       </c>
-      <c r="C426" s="21">
+      <c r="C426" s="18">
         <v>26.518000000000001</v>
       </c>
-      <c r="D426" s="21">
+      <c r="D426" s="18">
         <v>34.207999999999998</v>
       </c>
-      <c r="E426" s="21">
+      <c r="E426" s="18">
         <v>14.44</v>
       </c>
-      <c r="F426" s="21">
+      <c r="F426" s="18">
         <v>8.4280000000000008</v>
       </c>
-      <c r="G426" s="21">
+      <c r="G426" s="18">
         <v>6.9889999999999999</v>
       </c>
-      <c r="H426" s="21">
+      <c r="H426" s="18">
         <v>4.9560000000000004</v>
       </c>
-      <c r="I426" s="21">
+      <c r="I426" s="18">
         <v>5.3440000000000003</v>
       </c>
-      <c r="J426" s="21">
+      <c r="J426" s="18">
         <v>6.4950000000000001</v>
       </c>
-      <c r="K426" s="21">
+      <c r="K426" s="18">
         <v>3.0209999999999999</v>
       </c>
-      <c r="L426" s="21">
+      <c r="L426" s="18">
         <v>2.42</v>
       </c>
-      <c r="M426" s="21">
+      <c r="M426" s="18">
         <v>11.617000000000001</v>
       </c>
-      <c r="N426" s="32">
+      <c r="N426" s="29">
         <f>AVERAGE(B426:M457)</f>
         <v>15.702416438356162</v>
       </c>
@@ -17779,7 +21342,7 @@
       <c r="E455" s="12">
         <v>8.4280000000000008</v>
       </c>
-      <c r="F455" s="25"/>
+      <c r="F455" s="22"/>
       <c r="G455" s="12">
         <v>4.931</v>
       </c>
@@ -17804,7 +21367,7 @@
       <c r="A456" s="1">
         <v>31</v>
       </c>
-      <c r="B456" s="25">
+      <c r="B456" s="22">
         <v>32.72</v>
       </c>
       <c r="C456" s="12">
@@ -17818,14 +21381,14 @@
       <c r="G456" s="5"/>
       <c r="H456" s="5"/>
       <c r="I456" s="5"/>
-      <c r="J456" s="25"/>
-      <c r="K456" s="25">
+      <c r="J456" s="22"/>
+      <c r="K456" s="22">
         <v>2.52</v>
       </c>
-      <c r="L456" s="25">
+      <c r="L456" s="22">
         <v>10.220000000000001</v>
       </c>
-      <c r="M456" s="25">
+      <c r="M456" s="22">
         <v>59.758000000000003</v>
       </c>
     </row>
@@ -17833,7 +21396,7 @@
       <c r="A457" s="1">
         <v>32</v>
       </c>
-      <c r="B457" s="20"/>
+      <c r="B457" s="17"/>
       <c r="C457" s="12"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -17848,20 +21411,56 @@
         <v>44.697000000000003</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="15"/>
-      <c r="B458" s="16"/>
-      <c r="C458" s="17"/>
-      <c r="D458" s="18"/>
-      <c r="E458" s="18"/>
-      <c r="F458" s="18"/>
-      <c r="G458" s="18"/>
-      <c r="H458" s="18"/>
-      <c r="I458" s="18"/>
-      <c r="J458" s="18"/>
-      <c r="K458" s="18"/>
-      <c r="L458" s="16"/>
-      <c r="M458" s="17"/>
+      <c r="B458" s="33">
+        <f>AVERAGE(B426:B457)</f>
+        <v>53.568516129032275</v>
+      </c>
+      <c r="C458" s="33">
+        <f t="shared" ref="C458" si="127">AVERAGE(C426:C457)</f>
+        <v>40.965032258064511</v>
+      </c>
+      <c r="D458" s="33">
+        <f t="shared" ref="D458" si="128">AVERAGE(D426:D457)</f>
+        <v>26.485516129032259</v>
+      </c>
+      <c r="E458" s="33">
+        <f t="shared" ref="E458" si="129">AVERAGE(E426:E457)</f>
+        <v>10.404533333333335</v>
+      </c>
+      <c r="F458" s="33">
+        <f t="shared" ref="F458" si="130">AVERAGE(F426:F457)</f>
+        <v>7.275206896551726</v>
+      </c>
+      <c r="G458" s="33">
+        <f t="shared" ref="G458" si="131">AVERAGE(G426:G457)</f>
+        <v>5.7042333333333346</v>
+      </c>
+      <c r="H458" s="33">
+        <f t="shared" ref="H458" si="132">AVERAGE(H426:H457)</f>
+        <v>4.6288965517241376</v>
+      </c>
+      <c r="I458" s="33">
+        <f t="shared" ref="I458" si="133">AVERAGE(I426:I457)</f>
+        <v>5.7288666666666677</v>
+      </c>
+      <c r="J458" s="33">
+        <f t="shared" ref="J458" si="134">AVERAGE(J426:J457)</f>
+        <v>3.8978666666666664</v>
+      </c>
+      <c r="K458" s="33">
+        <f t="shared" ref="K458" si="135">AVERAGE(K426:K457)</f>
+        <v>3.8088709677419366</v>
+      </c>
+      <c r="L458" s="33">
+        <f t="shared" ref="L458" si="136">AVERAGE(L426:L457)</f>
+        <v>4.0191290322580651</v>
+      </c>
+      <c r="M458" s="33">
+        <f t="shared" ref="M458" si="137">AVERAGE(M426:M457)</f>
+        <v>19.369968750000002</v>
+      </c>
     </row>
     <row r="459" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
@@ -17916,43 +21515,43 @@
       <c r="A461" s="1">
         <v>1</v>
       </c>
-      <c r="B461" s="21">
+      <c r="B461" s="18">
         <v>49.77</v>
       </c>
-      <c r="C461" s="21">
+      <c r="C461" s="18">
         <v>83.864000000000004</v>
       </c>
-      <c r="D461" s="21">
+      <c r="D461" s="18">
         <v>51.37</v>
       </c>
-      <c r="E461" s="21">
+      <c r="E461" s="18">
         <v>25.64</v>
       </c>
-      <c r="F461" s="21">
+      <c r="F461" s="18">
         <v>11.59</v>
       </c>
-      <c r="G461" s="21">
+      <c r="G461" s="18">
         <v>7.91</v>
       </c>
-      <c r="H461" s="21">
+      <c r="H461" s="18">
         <v>5.92</v>
       </c>
-      <c r="I461" s="21">
+      <c r="I461" s="18">
         <v>4.5590000000000002</v>
       </c>
-      <c r="J461" s="21">
+      <c r="J461" s="18">
         <v>3.8380000000000001</v>
       </c>
-      <c r="K461" s="21">
+      <c r="K461" s="18">
         <v>4.1070000000000002</v>
       </c>
-      <c r="L461" s="21">
+      <c r="L461" s="18">
         <v>7.26</v>
       </c>
-      <c r="M461" s="21">
+      <c r="M461" s="18">
         <v>81.916291666666666</v>
       </c>
-      <c r="N461" s="32">
+      <c r="N461" s="29">
         <f>AVERAGE(B461:M492)</f>
         <v>25.309932876712349</v>
       </c>
@@ -18705,13 +22304,13 @@
       <c r="C480" s="12">
         <v>156.16999999999999</v>
       </c>
-      <c r="D480" s="30">
+      <c r="D480" s="27">
         <v>37.549999999999997</v>
       </c>
       <c r="E480" s="12">
         <v>14.19</v>
       </c>
-      <c r="F480" s="30">
+      <c r="F480" s="27">
         <v>8.64</v>
       </c>
       <c r="G480" s="12">
@@ -18790,19 +22389,19 @@
       <c r="D482" s="12">
         <v>33.67</v>
       </c>
-      <c r="E482" s="30">
+      <c r="E482" s="27">
         <v>13.97</v>
       </c>
       <c r="F482" s="12">
         <v>8.64</v>
       </c>
-      <c r="G482" s="30">
+      <c r="G482" s="27">
         <v>6.33</v>
       </c>
       <c r="H482" s="12">
         <v>5.1100000000000003</v>
       </c>
-      <c r="I482" s="30">
+      <c r="I482" s="27">
         <v>4.5090000000000003</v>
       </c>
       <c r="J482" s="12">
@@ -19121,7 +22720,7 @@
       <c r="E490" s="12">
         <v>12.486000000000001</v>
       </c>
-      <c r="F490" s="25"/>
+      <c r="F490" s="22"/>
       <c r="G490" s="12">
         <v>5.93</v>
       </c>
@@ -19129,7 +22728,7 @@
       <c r="I490" s="12">
         <v>3.9239999999999999</v>
       </c>
-      <c r="J490" s="21">
+      <c r="J490" s="18">
         <v>4.0460000000000003</v>
       </c>
       <c r="K490" s="12">
@@ -19146,10 +22745,10 @@
       <c r="A491" s="1">
         <v>31</v>
       </c>
-      <c r="B491" s="25">
+      <c r="B491" s="22">
         <v>74.61</v>
       </c>
-      <c r="C491" s="25">
+      <c r="C491" s="22">
         <v>47.21</v>
       </c>
       <c r="D491" s="12"/>
@@ -19158,8 +22757,8 @@
       <c r="G491" s="5"/>
       <c r="H491" s="5"/>
       <c r="I491" s="5"/>
-      <c r="J491" s="25"/>
-      <c r="K491" s="25">
+      <c r="J491" s="22"/>
+      <c r="K491" s="22">
         <v>3.8849999999999998</v>
       </c>
       <c r="L491" s="12">
@@ -19190,20 +22789,56 @@
       </c>
       <c r="M492" s="12"/>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="15"/>
-      <c r="B493" s="16"/>
-      <c r="C493" s="17"/>
-      <c r="D493" s="18"/>
-      <c r="E493" s="18"/>
-      <c r="F493" s="18"/>
-      <c r="G493" s="18"/>
-      <c r="H493" s="18"/>
-      <c r="I493" s="18"/>
-      <c r="J493" s="18"/>
-      <c r="K493" s="18"/>
-      <c r="L493" s="16"/>
-      <c r="M493" s="17"/>
+      <c r="B493" s="33">
+        <f>AVERAGE(B461:B492)</f>
+        <v>68.523187500000006</v>
+      </c>
+      <c r="C493" s="33">
+        <f t="shared" ref="C493" si="138">AVERAGE(C461:C492)</f>
+        <v>90.875096774193565</v>
+      </c>
+      <c r="D493" s="33">
+        <f t="shared" ref="D493" si="139">AVERAGE(D461:D492)</f>
+        <v>40.892366666666661</v>
+      </c>
+      <c r="E493" s="33">
+        <f t="shared" ref="E493" si="140">AVERAGE(E461:E492)</f>
+        <v>17.223933333333335</v>
+      </c>
+      <c r="F493" s="33">
+        <f t="shared" ref="F493" si="141">AVERAGE(F461:F492)</f>
+        <v>9.44551724137931</v>
+      </c>
+      <c r="G493" s="33">
+        <f t="shared" ref="G493" si="142">AVERAGE(G461:G492)</f>
+        <v>6.8260333333333358</v>
+      </c>
+      <c r="H493" s="33">
+        <f t="shared" ref="H493" si="143">AVERAGE(H461:H492)</f>
+        <v>5.5862068965517251</v>
+      </c>
+      <c r="I493" s="33">
+        <f t="shared" ref="I493" si="144">AVERAGE(I461:I492)</f>
+        <v>4.4305333333333321</v>
+      </c>
+      <c r="J493" s="33">
+        <f t="shared" ref="J493" si="145">AVERAGE(J461:J492)</f>
+        <v>3.9701666666666662</v>
+      </c>
+      <c r="K493" s="33">
+        <f t="shared" ref="K493" si="146">AVERAGE(K461:K492)</f>
+        <v>2.7655806451612901</v>
+      </c>
+      <c r="L493" s="33">
+        <f t="shared" ref="L493" si="147">AVERAGE(L461:L492)</f>
+        <v>6.7753437499999993</v>
+      </c>
+      <c r="M493" s="33">
+        <f t="shared" ref="M493" si="148">AVERAGE(M461:M492)</f>
+        <v>41.596790322580645</v>
+      </c>
     </row>
     <row r="494" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
@@ -19294,7 +22929,7 @@
       <c r="M496" s="11">
         <v>3.3</v>
       </c>
-      <c r="N496" s="32">
+      <c r="N496" s="29">
         <f>AVERAGE(B496:M527)</f>
         <v>21.528512511478407</v>
       </c>
@@ -20528,20 +24163,56 @@
       <c r="L527" s="12"/>
       <c r="M527" s="12"/>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A528" s="15"/>
-      <c r="B528" s="16"/>
-      <c r="C528" s="17"/>
-      <c r="D528" s="18"/>
-      <c r="E528" s="18"/>
-      <c r="F528" s="18"/>
-      <c r="G528" s="18"/>
-      <c r="H528" s="18"/>
-      <c r="I528" s="18"/>
-      <c r="J528" s="18"/>
-      <c r="K528" s="18"/>
-      <c r="L528" s="16"/>
-      <c r="M528" s="17"/>
+      <c r="B528" s="33">
+        <f>AVERAGE(B496:B527)</f>
+        <v>67.090470052083347</v>
+      </c>
+      <c r="C528" s="33">
+        <f t="shared" ref="C528" si="149">AVERAGE(C496:C527)</f>
+        <v>66.957666666666668</v>
+      </c>
+      <c r="D528" s="33">
+        <f t="shared" ref="D528" si="150">AVERAGE(D496:D527)</f>
+        <v>57.386333333333347</v>
+      </c>
+      <c r="E528" s="33">
+        <f t="shared" ref="E528" si="151">AVERAGE(E496:E527)</f>
+        <v>16.363866666666663</v>
+      </c>
+      <c r="F528" s="33">
+        <f t="shared" ref="F528" si="152">AVERAGE(F496:F527)</f>
+        <v>8.3907666666666643</v>
+      </c>
+      <c r="G528" s="33">
+        <f t="shared" ref="G528" si="153">AVERAGE(G496:G527)</f>
+        <v>6.3244827586206904</v>
+      </c>
+      <c r="H528" s="33">
+        <f t="shared" ref="H528" si="154">AVERAGE(H496:H527)</f>
+        <v>4.7070689655172435</v>
+      </c>
+      <c r="I528" s="33">
+        <f t="shared" ref="I528" si="155">AVERAGE(I496:I527)</f>
+        <v>3.7731724137931022</v>
+      </c>
+      <c r="J528" s="33">
+        <f t="shared" ref="J528" si="156">AVERAGE(J496:J527)</f>
+        <v>3.1561290322580637</v>
+      </c>
+      <c r="K528" s="33">
+        <f t="shared" ref="K528" si="157">AVERAGE(K496:K527)</f>
+        <v>1.6367096774193548</v>
+      </c>
+      <c r="L528" s="33">
+        <f t="shared" ref="L528" si="158">AVERAGE(L496:L527)</f>
+        <v>4.9864838709677404</v>
+      </c>
+      <c r="M528" s="33">
+        <f t="shared" ref="M528" si="159">AVERAGE(M496:M527)</f>
+        <v>14.91935483870968</v>
+      </c>
     </row>
     <row r="529" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
@@ -20632,7 +24303,7 @@
       <c r="M531" s="11">
         <v>2.92</v>
       </c>
-      <c r="N531" s="32">
+      <c r="N531" s="29">
         <f>AVERAGE(B531:M562)</f>
         <v>21.33737704918034</v>
       </c>
@@ -21872,20 +25543,56 @@
         <v>25.338999999999999</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="15"/>
-      <c r="B563" s="16"/>
-      <c r="C563" s="17"/>
-      <c r="D563" s="18"/>
-      <c r="E563" s="18"/>
-      <c r="F563" s="18"/>
-      <c r="G563" s="18"/>
-      <c r="H563" s="18"/>
-      <c r="I563" s="18"/>
-      <c r="J563" s="18"/>
-      <c r="K563" s="18"/>
-      <c r="L563" s="16"/>
-      <c r="M563" s="17"/>
+      <c r="B563" s="33">
+        <f>AVERAGE(B531:B562)</f>
+        <v>71.930312499999971</v>
+      </c>
+      <c r="C563" s="33">
+        <f t="shared" ref="C563" si="160">AVERAGE(C531:C562)</f>
+        <v>68.337290322580628</v>
+      </c>
+      <c r="D563" s="33">
+        <f t="shared" ref="D563" si="161">AVERAGE(D531:D562)</f>
+        <v>40.595161290322579</v>
+      </c>
+      <c r="E563" s="33">
+        <f t="shared" ref="E563" si="162">AVERAGE(E531:E562)</f>
+        <v>18.739655172413791</v>
+      </c>
+      <c r="F563" s="33">
+        <f t="shared" ref="F563" si="163">AVERAGE(F531:F562)</f>
+        <v>8.8246666666666691</v>
+      </c>
+      <c r="G563" s="33">
+        <f t="shared" ref="G563" si="164">AVERAGE(G531:G562)</f>
+        <v>6.7343333333333337</v>
+      </c>
+      <c r="H563" s="33">
+        <f t="shared" ref="H563" si="165">AVERAGE(H531:H562)</f>
+        <v>5.2389655172413798</v>
+      </c>
+      <c r="I563" s="33">
+        <f t="shared" ref="I563" si="166">AVERAGE(I531:I562)</f>
+        <v>4.2653448275862074</v>
+      </c>
+      <c r="J563" s="33">
+        <f t="shared" ref="J563" si="167">AVERAGE(J531:J562)</f>
+        <v>3.1219354838709688</v>
+      </c>
+      <c r="K563" s="33">
+        <f t="shared" ref="K563" si="168">AVERAGE(K531:K562)</f>
+        <v>1.9016129032258058</v>
+      </c>
+      <c r="L563" s="33">
+        <f t="shared" ref="L563" si="169">AVERAGE(L531:L562)</f>
+        <v>2.6165806451612905</v>
+      </c>
+      <c r="M563" s="33">
+        <f t="shared" ref="M563" si="170">AVERAGE(M531:M562)</f>
+        <v>19.00359375</v>
+      </c>
     </row>
     <row r="564" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
@@ -21976,7 +25683,7 @@
       <c r="M566" s="12">
         <v>5.63</v>
       </c>
-      <c r="N566" s="32">
+      <c r="N566" s="29">
         <f>AVERAGE(B566:M597)</f>
         <v>25.061728767123299</v>
       </c>
@@ -23214,20 +26921,56 @@
         <v>97.426000000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="15"/>
-      <c r="B598" s="16"/>
-      <c r="C598" s="17"/>
-      <c r="D598" s="18"/>
-      <c r="E598" s="18"/>
-      <c r="F598" s="18"/>
-      <c r="G598" s="18"/>
-      <c r="H598" s="18"/>
-      <c r="I598" s="18"/>
-      <c r="J598" s="18"/>
-      <c r="K598" s="18"/>
-      <c r="L598" s="16"/>
-      <c r="M598" s="17"/>
+      <c r="B598" s="33">
+        <f>AVERAGE(B566:B597)</f>
+        <v>74.613806451612916</v>
+      </c>
+      <c r="C598" s="33">
+        <f t="shared" ref="C598" si="171">AVERAGE(C566:C597)</f>
+        <v>74.597451612903228</v>
+      </c>
+      <c r="D598" s="33">
+        <f t="shared" ref="D598" si="172">AVERAGE(D566:D597)</f>
+        <v>55.239032258064533</v>
+      </c>
+      <c r="E598" s="33">
+        <f t="shared" ref="E598" si="173">AVERAGE(E566:E597)</f>
+        <v>17.745000000000005</v>
+      </c>
+      <c r="F598" s="33">
+        <f t="shared" ref="F598" si="174">AVERAGE(F566:F597)</f>
+        <v>9.3204827586206864</v>
+      </c>
+      <c r="G598" s="33">
+        <f t="shared" ref="G598" si="175">AVERAGE(G566:G597)</f>
+        <v>6.6146666666666656</v>
+      </c>
+      <c r="H598" s="33">
+        <f t="shared" ref="H598" si="176">AVERAGE(H566:H597)</f>
+        <v>5.0431034482758621</v>
+      </c>
+      <c r="I598" s="33">
+        <f t="shared" ref="I598" si="177">AVERAGE(I566:I597)</f>
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="J598" s="33">
+        <f t="shared" ref="J598" si="178">AVERAGE(J566:J597)</f>
+        <v>3.4662666666666673</v>
+      </c>
+      <c r="K598" s="33">
+        <f t="shared" ref="K598" si="179">AVERAGE(K566:K597)</f>
+        <v>2.6076129032258062</v>
+      </c>
+      <c r="L598" s="33">
+        <f t="shared" ref="L598" si="180">AVERAGE(L566:L597)</f>
+        <v>5.5824193548387102</v>
+      </c>
+      <c r="M598" s="33">
+        <f t="shared" ref="M598" si="181">AVERAGE(M566:M597)</f>
+        <v>36.650281249999999</v>
+      </c>
     </row>
     <row r="599" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
@@ -23318,7 +27061,7 @@
       <c r="M601" s="12">
         <v>1.25</v>
       </c>
-      <c r="N601" s="32">
+      <c r="N601" s="29">
         <f>AVERAGE(B601:M632)</f>
         <v>21.771803013698623</v>
       </c>
@@ -24556,20 +28299,56 @@
       </c>
       <c r="M632" s="12"/>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A633" s="15"/>
-      <c r="B633" s="16"/>
-      <c r="C633" s="17"/>
-      <c r="D633" s="18"/>
-      <c r="E633" s="18"/>
-      <c r="F633" s="18"/>
-      <c r="G633" s="18"/>
-      <c r="H633" s="18"/>
-      <c r="I633" s="18"/>
-      <c r="J633" s="18"/>
-      <c r="K633" s="18"/>
-      <c r="L633" s="16"/>
-      <c r="M633" s="17"/>
+      <c r="B633" s="33">
+        <f>AVERAGE(B601:B632)</f>
+        <v>68.271874999999994</v>
+      </c>
+      <c r="C633" s="33">
+        <f t="shared" ref="C633" si="182">AVERAGE(C601:C632)</f>
+        <v>70.300648387096786</v>
+      </c>
+      <c r="D633" s="33">
+        <f t="shared" ref="D633" si="183">AVERAGE(D601:D632)</f>
+        <v>50.331800000000001</v>
+      </c>
+      <c r="E633" s="33">
+        <f t="shared" ref="E633" si="184">AVERAGE(E601:E632)</f>
+        <v>16.4087</v>
+      </c>
+      <c r="F633" s="33">
+        <f t="shared" ref="F633" si="185">AVERAGE(F601:F632)</f>
+        <v>8.6084137931034483</v>
+      </c>
+      <c r="G633" s="33">
+        <f t="shared" ref="G633" si="186">AVERAGE(G601:G632)</f>
+        <v>6.8869333333333334</v>
+      </c>
+      <c r="H633" s="33">
+        <f t="shared" ref="H633" si="187">AVERAGE(H601:H632)</f>
+        <v>5.7915172413793092</v>
+      </c>
+      <c r="I633" s="33">
+        <f t="shared" ref="I633" si="188">AVERAGE(I601:I632)</f>
+        <v>4.1528666666666663</v>
+      </c>
+      <c r="J633" s="33">
+        <f t="shared" ref="J633" si="189">AVERAGE(J601:J632)</f>
+        <v>3.6642000000000001</v>
+      </c>
+      <c r="K633" s="33">
+        <f t="shared" ref="K633" si="190">AVERAGE(K601:K632)</f>
+        <v>2.0742258064516128</v>
+      </c>
+      <c r="L633" s="33">
+        <f t="shared" ref="L633" si="191">AVERAGE(L601:L632)</f>
+        <v>1.5539374999999997</v>
+      </c>
+      <c r="M633" s="33">
+        <f t="shared" ref="M633" si="192">AVERAGE(M601:M632)</f>
+        <v>19.604129032258065</v>
+      </c>
     </row>
     <row r="634" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
@@ -24660,7 +28439,7 @@
       <c r="M636" s="9">
         <v>16.573</v>
       </c>
-      <c r="N636" s="32">
+      <c r="N636" s="29">
         <f>AVERAGE(B636:M667)</f>
         <v>25.130723287671227</v>
       </c>
@@ -25900,9 +29679,54 @@
     </row>
     <row r="668" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
-      <c r="B668" s="2"/>
-      <c r="C668" s="2"/>
-      <c r="D668" s="3"/>
+      <c r="B668" s="33">
+        <f>AVERAGE(B636:B667)</f>
+        <v>64.819249999999997</v>
+      </c>
+      <c r="C668" s="33">
+        <f t="shared" ref="C668" si="193">AVERAGE(C636:C667)</f>
+        <v>65.475225806451604</v>
+      </c>
+      <c r="D668" s="33">
+        <f t="shared" ref="D668" si="194">AVERAGE(D636:D667)</f>
+        <v>39.759233333333341</v>
+      </c>
+      <c r="E668" s="33">
+        <f t="shared" ref="E668" si="195">AVERAGE(E636:E667)</f>
+        <v>13.717733333333333</v>
+      </c>
+      <c r="F668" s="33">
+        <f t="shared" ref="F668" si="196">AVERAGE(F636:F667)</f>
+        <v>7.6434333333333369</v>
+      </c>
+      <c r="G668" s="33">
+        <f t="shared" ref="G668" si="197">AVERAGE(G636:G667)</f>
+        <v>5.7699655172413786</v>
+      </c>
+      <c r="H668" s="33">
+        <f t="shared" ref="H668" si="198">AVERAGE(H636:H667)</f>
+        <v>5.6343793103448272</v>
+      </c>
+      <c r="I668" s="33">
+        <f t="shared" ref="I668" si="199">AVERAGE(I636:I667)</f>
+        <v>4.84</v>
+      </c>
+      <c r="J668" s="33">
+        <f t="shared" ref="J668" si="200">AVERAGE(J636:J667)</f>
+        <v>3.0084193548387095</v>
+      </c>
+      <c r="K668" s="33">
+        <f t="shared" ref="K668" si="201">AVERAGE(K636:K667)</f>
+        <v>3.3345161290322585</v>
+      </c>
+      <c r="L668" s="33">
+        <f t="shared" ref="L668" si="202">AVERAGE(L636:L667)</f>
+        <v>11.669774193548385</v>
+      </c>
+      <c r="M668" s="33">
+        <f t="shared" ref="M668" si="203">AVERAGE(M636:M667)</f>
+        <v>70.99464516129035</v>
+      </c>
     </row>
     <row r="669" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
@@ -25993,7 +29817,7 @@
       <c r="M671" s="5">
         <v>3.298</v>
       </c>
-      <c r="N671" s="32">
+      <c r="N671" s="29">
         <f>AVERAGE(B671:M702)</f>
         <v>25.271084699453553</v>
       </c>
@@ -27233,6 +31057,56 @@
         <v>37.725000000000001</v>
       </c>
     </row>
+    <row r="703" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B703" s="33">
+        <f>AVERAGE(B671:B702)</f>
+        <v>110.64565624999999</v>
+      </c>
+      <c r="C703" s="33">
+        <f t="shared" ref="C703" si="204">AVERAGE(C671:C702)</f>
+        <v>76.755193548387084</v>
+      </c>
+      <c r="D703" s="33">
+        <f t="shared" ref="D703" si="205">AVERAGE(D671:D702)</f>
+        <v>30.805838709677424</v>
+      </c>
+      <c r="E703" s="33">
+        <f t="shared" ref="E703" si="206">AVERAGE(E671:E702)</f>
+        <v>18.603137931034478</v>
+      </c>
+      <c r="F703" s="33">
+        <f t="shared" ref="F703" si="207">AVERAGE(F671:F702)</f>
+        <v>9.7732666666666663</v>
+      </c>
+      <c r="G703" s="33">
+        <f t="shared" ref="G703" si="208">AVERAGE(G671:G702)</f>
+        <v>7.133700000000001</v>
+      </c>
+      <c r="H703" s="33">
+        <f t="shared" ref="H703" si="209">AVERAGE(H671:H702)</f>
+        <v>6.5141724137931005</v>
+      </c>
+      <c r="I703" s="33">
+        <f t="shared" ref="I703" si="210">AVERAGE(I671:I702)</f>
+        <v>5.4528333333333334</v>
+      </c>
+      <c r="J703" s="33">
+        <f t="shared" ref="J703" si="211">AVERAGE(J671:J702)</f>
+        <v>3.9568999999999983</v>
+      </c>
+      <c r="K703" s="33">
+        <f t="shared" ref="K703" si="212">AVERAGE(K671:K702)</f>
+        <v>2.419451612903226</v>
+      </c>
+      <c r="L703" s="33">
+        <f t="shared" ref="L703" si="213">AVERAGE(L671:L702)</f>
+        <v>3.7739032258064515</v>
+      </c>
+      <c r="M703" s="33">
+        <f t="shared" ref="M703" si="214">AVERAGE(M671:M702)</f>
+        <v>20.758343750000002</v>
+      </c>
+    </row>
     <row r="704" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>21</v>
@@ -27322,7 +31196,7 @@
       <c r="M706" s="5">
         <v>3.4729999999999999</v>
       </c>
-      <c r="N706" s="32">
+      <c r="N706" s="29">
         <f>AVERAGE(B706:M737)</f>
         <v>20.604638356164397</v>
       </c>
@@ -28560,6 +32434,56 @@
       </c>
       <c r="M737" s="5"/>
     </row>
+    <row r="738" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B738" s="33">
+        <f>AVERAGE(B706:B737)</f>
+        <v>73.940290322580637</v>
+      </c>
+      <c r="C738" s="33">
+        <f t="shared" ref="C738" si="215">AVERAGE(C706:C737)</f>
+        <v>59.781000000000006</v>
+      </c>
+      <c r="D738" s="33">
+        <f t="shared" ref="D738" si="216">AVERAGE(D706:D737)</f>
+        <v>34.140419354838713</v>
+      </c>
+      <c r="E738" s="33">
+        <f t="shared" ref="E738" si="217">AVERAGE(E706:E737)</f>
+        <v>16.520866666666667</v>
+      </c>
+      <c r="F738" s="33">
+        <f t="shared" ref="F738" si="218">AVERAGE(F706:F737)</f>
+        <v>9.0616206896551716</v>
+      </c>
+      <c r="G738" s="33">
+        <f t="shared" ref="G738" si="219">AVERAGE(G706:G737)</f>
+        <v>8.2641666666666662</v>
+      </c>
+      <c r="H738" s="33">
+        <f t="shared" ref="H738" si="220">AVERAGE(H706:H737)</f>
+        <v>6.0609999999999999</v>
+      </c>
+      <c r="I738" s="33">
+        <f t="shared" ref="I738" si="221">AVERAGE(I706:I737)</f>
+        <v>5.6435333333333348</v>
+      </c>
+      <c r="J738" s="33">
+        <f t="shared" ref="J738" si="222">AVERAGE(J706:J737)</f>
+        <v>5.0915666666666661</v>
+      </c>
+      <c r="K738" s="33">
+        <f t="shared" ref="K738" si="223">AVERAGE(K706:K737)</f>
+        <v>4.7670322580645177</v>
+      </c>
+      <c r="L738" s="33">
+        <f t="shared" ref="L738" si="224">AVERAGE(L706:L737)</f>
+        <v>2.6033125000000004</v>
+      </c>
+      <c r="M738" s="33">
+        <f t="shared" ref="M738" si="225">AVERAGE(M706:M737)</f>
+        <v>18.765677419354837</v>
+      </c>
+    </row>
     <row r="739" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>1</v>
@@ -28649,7 +32573,7 @@
       <c r="M741" s="5">
         <v>5.617</v>
       </c>
-      <c r="N741" s="32">
+      <c r="N741" s="29">
         <f>AVERAGE(B741:M772)</f>
         <v>21.470158904109574</v>
       </c>
@@ -29887,6 +33811,56 @@
       </c>
       <c r="M772" s="5"/>
     </row>
+    <row r="773" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B773" s="33">
+        <f>AVERAGE(B741:B772)</f>
+        <v>67.385406250000003</v>
+      </c>
+      <c r="C773" s="33">
+        <f t="shared" ref="C773" si="226">AVERAGE(C741:C772)</f>
+        <v>58.640032258064515</v>
+      </c>
+      <c r="D773" s="33">
+        <f t="shared" ref="D773" si="227">AVERAGE(D741:D772)</f>
+        <v>35.21423333333334</v>
+      </c>
+      <c r="E773" s="33">
+        <f t="shared" ref="E773" si="228">AVERAGE(E741:E772)</f>
+        <v>12.8948</v>
+      </c>
+      <c r="F773" s="33">
+        <f t="shared" ref="F773" si="229">AVERAGE(F741:F772)</f>
+        <v>7.8916551724137944</v>
+      </c>
+      <c r="G773" s="33">
+        <f t="shared" ref="G773" si="230">AVERAGE(G741:G772)</f>
+        <v>5.9090333333333351</v>
+      </c>
+      <c r="H773" s="33">
+        <f t="shared" ref="H773" si="231">AVERAGE(H741:H772)</f>
+        <v>5.2724137931034507</v>
+      </c>
+      <c r="I773" s="33">
+        <f t="shared" ref="I773" si="232">AVERAGE(I741:I772)</f>
+        <v>3.9391333333333325</v>
+      </c>
+      <c r="J773" s="33">
+        <f t="shared" ref="J773" si="233">AVERAGE(J741:J772)</f>
+        <v>3.2854999999999999</v>
+      </c>
+      <c r="K773" s="33">
+        <f t="shared" ref="K773" si="234">AVERAGE(K741:K772)</f>
+        <v>2.5699677419354834</v>
+      </c>
+      <c r="L773" s="33">
+        <f t="shared" ref="L773" si="235">AVERAGE(L741:L772)</f>
+        <v>5.4387499999999998</v>
+      </c>
+      <c r="M773" s="33">
+        <f t="shared" ref="M773" si="236">AVERAGE(M741:M772)</f>
+        <v>44.828580645161296</v>
+      </c>
+    </row>
     <row r="774" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>16</v>
@@ -29976,7 +33950,7 @@
       <c r="M776" s="5">
         <v>14.462999999999999</v>
       </c>
-      <c r="N776" s="32">
+      <c r="N776" s="29">
         <f>AVERAGE(B776:M807)</f>
         <v>29.798565573770496</v>
       </c>
@@ -31216,6 +35190,56 @@
       <c r="L807" s="5"/>
       <c r="M807" s="5"/>
     </row>
+    <row r="808" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B808" s="33">
+        <f>AVERAGE(B776:B807)</f>
+        <v>130.71284374999999</v>
+      </c>
+      <c r="C808" s="33">
+        <f t="shared" ref="C808" si="237">AVERAGE(C776:C807)</f>
+        <v>44.635580645161298</v>
+      </c>
+      <c r="D808" s="33">
+        <f t="shared" ref="D808" si="238">AVERAGE(D776:D807)</f>
+        <v>54.539133333333332</v>
+      </c>
+      <c r="E808" s="33">
+        <f t="shared" ref="E808" si="239">AVERAGE(E776:E807)</f>
+        <v>22.448299999999993</v>
+      </c>
+      <c r="F808" s="33">
+        <f t="shared" ref="F808" si="240">AVERAGE(F776:F807)</f>
+        <v>10.109499999999997</v>
+      </c>
+      <c r="G808" s="33">
+        <f t="shared" ref="G808" si="241">AVERAGE(G776:G807)</f>
+        <v>6.9718965517241376</v>
+      </c>
+      <c r="H808" s="33">
+        <f t="shared" ref="H808" si="242">AVERAGE(H776:H807)</f>
+        <v>5.7861379310344816</v>
+      </c>
+      <c r="I808" s="33">
+        <f t="shared" ref="I808" si="243">AVERAGE(I776:I807)</f>
+        <v>4.8101290322580645</v>
+      </c>
+      <c r="J808" s="33">
+        <f t="shared" ref="J808" si="244">AVERAGE(J776:J807)</f>
+        <v>4.1911290322580648</v>
+      </c>
+      <c r="K808" s="33">
+        <f t="shared" ref="K808" si="245">AVERAGE(K776:K807)</f>
+        <v>5.0850967741935467</v>
+      </c>
+      <c r="L808" s="33">
+        <f t="shared" ref="L808" si="246">AVERAGE(L776:L807)</f>
+        <v>6.3417741935483862</v>
+      </c>
+      <c r="M808" s="33">
+        <f t="shared" ref="M808" si="247">AVERAGE(M776:M807)</f>
+        <v>55.599935483870965</v>
+      </c>
+    </row>
     <row r="809" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
         <v>17</v>
@@ -31305,7 +35329,7 @@
       <c r="M811" s="5">
         <v>2.7810000000000001</v>
       </c>
-      <c r="N811" s="32">
+      <c r="N811" s="29">
         <f>AVERAGE(B811:M842)</f>
         <v>18.822980874316929</v>
       </c>
@@ -32545,6 +36569,56 @@
         <v>33.543999999999997</v>
       </c>
     </row>
+    <row r="843" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B843" s="33">
+        <f>AVERAGE(B811:B842)</f>
+        <v>68.643062500000013</v>
+      </c>
+      <c r="C843" s="33">
+        <f t="shared" ref="C843" si="248">AVERAGE(C811:C842)</f>
+        <v>57.671322580645153</v>
+      </c>
+      <c r="D843" s="33">
+        <f t="shared" ref="D843" si="249">AVERAGE(D811:D842)</f>
+        <v>39.636774193548391</v>
+      </c>
+      <c r="E843" s="33">
+        <f t="shared" ref="E843" si="250">AVERAGE(E811:E842)</f>
+        <v>13.718199999999998</v>
+      </c>
+      <c r="F843" s="33">
+        <f t="shared" ref="F843" si="251">AVERAGE(F811:F842)</f>
+        <v>7.6512068965517228</v>
+      </c>
+      <c r="G843" s="33">
+        <f t="shared" ref="G843" si="252">AVERAGE(G811:G842)</f>
+        <v>5.6863666666666663</v>
+      </c>
+      <c r="H843" s="33">
+        <f t="shared" ref="H843" si="253">AVERAGE(H811:H842)</f>
+        <v>4.8135862068965514</v>
+      </c>
+      <c r="I843" s="33">
+        <f t="shared" ref="I843" si="254">AVERAGE(I811:I842)</f>
+        <v>3.7614999999999998</v>
+      </c>
+      <c r="J843" s="33">
+        <f t="shared" ref="J843" si="255">AVERAGE(J811:J842)</f>
+        <v>4.2008333333333328</v>
+      </c>
+      <c r="K843" s="33">
+        <f t="shared" ref="K843" si="256">AVERAGE(K811:K842)</f>
+        <v>2.6687096774193542</v>
+      </c>
+      <c r="L843" s="33">
+        <f t="shared" ref="L843" si="257">AVERAGE(L811:L842)</f>
+        <v>3.5380000000000003</v>
+      </c>
+      <c r="M843" s="33">
+        <f t="shared" ref="M843" si="258">AVERAGE(M811:M842)</f>
+        <v>9.4121249999999996</v>
+      </c>
+    </row>
     <row r="844" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>18</v>
@@ -32634,7 +36708,7 @@
       <c r="M846" s="5">
         <v>1.524</v>
       </c>
-      <c r="N846" s="32">
+      <c r="N846" s="29">
         <f>AVERAGE(B846:M877)</f>
         <v>16.502295890410952</v>
       </c>
@@ -33872,6 +37946,56 @@
       </c>
       <c r="M877" s="5"/>
     </row>
+    <row r="878" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B878" s="33">
+        <f>AVERAGE(B846:B877)</f>
+        <v>48.653387096774196</v>
+      </c>
+      <c r="C878" s="33">
+        <f t="shared" ref="C878" si="259">AVERAGE(C846:C877)</f>
+        <v>64.625967741935469</v>
+      </c>
+      <c r="D878" s="33">
+        <f t="shared" ref="D878" si="260">AVERAGE(D846:D877)</f>
+        <v>23.309967741935488</v>
+      </c>
+      <c r="E878" s="33">
+        <f t="shared" ref="E878" si="261">AVERAGE(E846:E877)</f>
+        <v>10.546733333333332</v>
+      </c>
+      <c r="F878" s="33">
+        <f t="shared" ref="F878" si="262">AVERAGE(F846:F877)</f>
+        <v>6.6558965517241386</v>
+      </c>
+      <c r="G878" s="33">
+        <f t="shared" ref="G878" si="263">AVERAGE(G846:G877)</f>
+        <v>5.3209999999999997</v>
+      </c>
+      <c r="H878" s="33">
+        <f t="shared" ref="H878" si="264">AVERAGE(H846:H877)</f>
+        <v>6.12351724137931</v>
+      </c>
+      <c r="I878" s="33">
+        <f t="shared" ref="I878" si="265">AVERAGE(I846:I877)</f>
+        <v>5.4975000000000005</v>
+      </c>
+      <c r="J878" s="33">
+        <f t="shared" ref="J878" si="266">AVERAGE(J846:J877)</f>
+        <v>4.2669666666666659</v>
+      </c>
+      <c r="K878" s="33">
+        <f t="shared" ref="K878" si="267">AVERAGE(K846:K877)</f>
+        <v>2.863967741935483</v>
+      </c>
+      <c r="L878" s="33">
+        <f t="shared" ref="L878" si="268">AVERAGE(L846:L877)</f>
+        <v>3.1744062499999992</v>
+      </c>
+      <c r="M878" s="33">
+        <f t="shared" ref="M878" si="269">AVERAGE(M846:M877)</f>
+        <v>14.810838709677418</v>
+      </c>
+    </row>
     <row r="879" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>19</v>
@@ -33961,7 +38085,7 @@
       <c r="M881" s="5">
         <v>29.605</v>
       </c>
-      <c r="N881" s="32">
+      <c r="N881" s="29">
         <f>AVERAGE(B881:M912)</f>
         <v>24.331871232876711</v>
       </c>
@@ -35199,6 +39323,56 @@
       </c>
       <c r="M912" s="5"/>
     </row>
+    <row r="913" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B913" s="33">
+        <f>AVERAGE(B881:B912)</f>
+        <v>41.2280625</v>
+      </c>
+      <c r="C913" s="33">
+        <f t="shared" ref="C913" si="270">AVERAGE(C881:C912)</f>
+        <v>63.799258064516131</v>
+      </c>
+      <c r="D913" s="33">
+        <f t="shared" ref="D913" si="271">AVERAGE(D881:D912)</f>
+        <v>47.028033333333319</v>
+      </c>
+      <c r="E913" s="33">
+        <f t="shared" ref="E913" si="272">AVERAGE(E881:E912)</f>
+        <v>15.196533333333337</v>
+      </c>
+      <c r="F913" s="33">
+        <f t="shared" ref="F913" si="273">AVERAGE(F881:F912)</f>
+        <v>8.1431666666666658</v>
+      </c>
+      <c r="G913" s="33">
+        <f t="shared" ref="G913" si="274">AVERAGE(G881:G912)</f>
+        <v>6.3187931034482752</v>
+      </c>
+      <c r="H913" s="33">
+        <f t="shared" ref="H913" si="275">AVERAGE(H881:H912)</f>
+        <v>6.0484137931034478</v>
+      </c>
+      <c r="I913" s="33">
+        <f t="shared" ref="I913" si="276">AVERAGE(I881:I912)</f>
+        <v>5.3208666666666655</v>
+      </c>
+      <c r="J913" s="33">
+        <f t="shared" ref="J913" si="277">AVERAGE(J881:J912)</f>
+        <v>4.8971</v>
+      </c>
+      <c r="K913" s="33">
+        <f t="shared" ref="K913" si="278">AVERAGE(K881:K912)</f>
+        <v>8.2467741935483865</v>
+      </c>
+      <c r="L913" s="33">
+        <f t="shared" ref="L913" si="279">AVERAGE(L881:L912)</f>
+        <v>8.8260312499999998</v>
+      </c>
+      <c r="M913" s="33">
+        <f t="shared" ref="M913" si="280">AVERAGE(M881:M912)</f>
+        <v>73.217903225806452</v>
+      </c>
+    </row>
     <row r="914" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>22</v>
@@ -35288,7 +39462,7 @@
       <c r="M916" s="9">
         <v>131.52000000000001</v>
       </c>
-      <c r="N916" s="32">
+      <c r="N916" s="29">
         <f>AVERAGE(B916:M947)</f>
         <v>28.340987945205455</v>
       </c>
@@ -36526,6 +40700,56 @@
       <c r="L947" s="5"/>
       <c r="M947" s="5"/>
     </row>
+    <row r="948" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B948" s="33">
+        <f>AVERAGE(B916:B947)</f>
+        <v>83.259031249999992</v>
+      </c>
+      <c r="C948" s="33">
+        <f t="shared" ref="C948" si="281">AVERAGE(C916:C947)</f>
+        <v>81.706580645161324</v>
+      </c>
+      <c r="D948" s="33">
+        <f t="shared" ref="D948" si="282">AVERAGE(D916:D947)</f>
+        <v>56.914733333333324</v>
+      </c>
+      <c r="E948" s="33">
+        <f t="shared" ref="E948" si="283">AVERAGE(E916:E947)</f>
+        <v>16.99123333333333</v>
+      </c>
+      <c r="F948" s="33">
+        <f t="shared" ref="F948" si="284">AVERAGE(F916:F947)</f>
+        <v>8.4158200000000019</v>
+      </c>
+      <c r="G948" s="33">
+        <f t="shared" ref="G948" si="285">AVERAGE(G916:G947)</f>
+        <v>6.1162758620689663</v>
+      </c>
+      <c r="H948" s="33">
+        <f t="shared" ref="H948" si="286">AVERAGE(H916:H947)</f>
+        <v>4.8081000000000005</v>
+      </c>
+      <c r="I948" s="33">
+        <f t="shared" ref="I948" si="287">AVERAGE(I916:I947)</f>
+        <v>3.7779655172413791</v>
+      </c>
+      <c r="J948" s="33">
+        <f t="shared" ref="J948" si="288">AVERAGE(J916:J947)</f>
+        <v>3.0910322580645162</v>
+      </c>
+      <c r="K948" s="33">
+        <f t="shared" ref="K948" si="289">AVERAGE(K916:K947)</f>
+        <v>5.307483870967741</v>
+      </c>
+      <c r="L948" s="33">
+        <f t="shared" ref="L948" si="290">AVERAGE(L916:L947)</f>
+        <v>8.0459999999999994</v>
+      </c>
+      <c r="M948" s="33">
+        <f t="shared" ref="M948" si="291">AVERAGE(M916:M947)</f>
+        <v>56.021225806451611</v>
+      </c>
+    </row>
     <row r="949" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
         <v>23</v>
@@ -36615,7 +40839,7 @@
       <c r="M951" s="9">
         <v>11.085000000000001</v>
       </c>
-      <c r="N951" s="32">
+      <c r="N951" s="29">
         <f>AVERAGE(B951:M982)</f>
         <v>29.432248633879802</v>
       </c>
@@ -37855,6 +42079,56 @@
         <v>28.428999999999998</v>
       </c>
     </row>
+    <row r="983" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B983" s="33">
+        <f>AVERAGE(B951:B982)</f>
+        <v>73.540187500000002</v>
+      </c>
+      <c r="C983" s="33">
+        <f t="shared" ref="C983" si="292">AVERAGE(C951:C982)</f>
+        <v>104.51203225806452</v>
+      </c>
+      <c r="D983" s="33">
+        <f t="shared" ref="D983" si="293">AVERAGE(D951:D982)</f>
+        <v>45.665645161290328</v>
+      </c>
+      <c r="E983" s="33">
+        <f t="shared" ref="E983" si="294">AVERAGE(E951:E982)</f>
+        <v>39.51700000000001</v>
+      </c>
+      <c r="F983" s="33">
+        <f t="shared" ref="F983" si="295">AVERAGE(F951:F982)</f>
+        <v>14.676586206896548</v>
+      </c>
+      <c r="G983" s="33">
+        <f t="shared" ref="G983" si="296">AVERAGE(G951:G982)</f>
+        <v>9.4721666666666628</v>
+      </c>
+      <c r="H983" s="33">
+        <f t="shared" ref="H983" si="297">AVERAGE(H951:H982)</f>
+        <v>8.0347586206896562</v>
+      </c>
+      <c r="I983" s="33">
+        <f t="shared" ref="I983" si="298">AVERAGE(I951:I982)</f>
+        <v>5.8133666666666661</v>
+      </c>
+      <c r="J983" s="33">
+        <f t="shared" ref="J983" si="299">AVERAGE(J951:J982)</f>
+        <v>4.210700000000001</v>
+      </c>
+      <c r="K983" s="33">
+        <f t="shared" ref="K983" si="300">AVERAGE(K951:K982)</f>
+        <v>5.4619354838709686</v>
+      </c>
+      <c r="L983" s="33">
+        <f t="shared" ref="L983" si="301">AVERAGE(L951:L982)</f>
+        <v>7.3120000000000012</v>
+      </c>
+      <c r="M983" s="33">
+        <f t="shared" ref="M983" si="302">AVERAGE(M951:M982)</f>
+        <v>29.324718750000002</v>
+      </c>
+    </row>
     <row r="984" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
         <v>24</v>
@@ -37930,7 +42204,7 @@
       <c r="K986" s="9"/>
       <c r="L986" s="9"/>
       <c r="M986" s="9"/>
-      <c r="N986" s="32">
+      <c r="N986" s="29">
         <f>AVERAGE(B986:M1017)</f>
         <v>46.610447368421063</v>
       </c>
@@ -38755,6 +43029,56 @@
       <c r="K1017" s="5"/>
       <c r="L1017" s="5"/>
       <c r="M1017" s="11"/>
+    </row>
+    <row r="1018" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1018" s="33">
+        <f>AVERAGE(B986:B1017)</f>
+        <v>53.415225806451602</v>
+      </c>
+      <c r="C1018" s="33">
+        <f t="shared" ref="C1018" si="303">AVERAGE(C986:C1017)</f>
+        <v>54.419387096774194</v>
+      </c>
+      <c r="D1018" s="33">
+        <f t="shared" ref="D1018" si="304">AVERAGE(D986:D1017)</f>
+        <v>83.805322580645154</v>
+      </c>
+      <c r="E1018" s="33">
+        <f t="shared" ref="E1018" si="305">AVERAGE(E986:E1017)</f>
+        <v>27.691099999999999</v>
+      </c>
+      <c r="F1018" s="33">
+        <f t="shared" ref="F1018" si="306">AVERAGE(F986:F1017)</f>
+        <v>10.800586206896551</v>
+      </c>
+      <c r="G1018" s="33" t="e">
+        <f t="shared" ref="G1018" si="307">AVERAGE(G986:G1017)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H1018" s="33" t="e">
+        <f t="shared" ref="H1018" si="308">AVERAGE(H986:H1017)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I1018" s="33" t="e">
+        <f t="shared" ref="I1018" si="309">AVERAGE(I986:I1017)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J1018" s="33" t="e">
+        <f t="shared" ref="J1018" si="310">AVERAGE(J986:J1017)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K1018" s="33" t="e">
+        <f t="shared" ref="K1018" si="311">AVERAGE(K986:K1017)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L1018" s="33" t="e">
+        <f t="shared" ref="L1018" si="312">AVERAGE(L986:L1017)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M1018" s="33" t="e">
+        <f t="shared" ref="M1018" si="313">AVERAGE(M986:M1017)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -38796,7 +43120,7 @@
         <v>2052</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B30" si="0">CONCATENATE(A2,"/",A3)</f>
+        <f t="shared" ref="B2:B29" si="0">CONCATENATE(A2,"/",A3)</f>
         <v>2052/2053</v>
       </c>
       <c r="C2">
